--- a/data/impfzahlen.xlsx
+++ b/data/impfzahlen.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HennequinM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7E01C-BDFF-45BF-88CD-AA00A32BAA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13508E3-EF5F-40A6-AC9B-5F42A703F532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_10.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_10.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_11.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_11.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_10.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_10.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_10.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_10.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_11.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_11.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_11.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_11.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Bayern</t>
   </si>
@@ -234,16 +234,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 11.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 10.03.21 (Gesamt_bis_einschl_10.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 10.03.21 durchgeführt und bis zum 11.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 10.03.21 (Indik_bis_einschl_10.03.21)</t>
+    <t>Datenstand: 12.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 11.03.21 (Gesamt_bis_einschl_11.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.03.21 durchgeführt und bis zum 12.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 11.03.21 (Indik_bis_einschl_11.03.21)</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -518,17 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -585,7 +574,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -650,9 +639,9 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -692,7 +681,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -708,67 +697,57 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,8 +784,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="3" xr16:uid="{10EB7D4A-C6FB-4E43-B944-6B911CB0EBE1}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="22">
-    <queryTableFields count="10">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="23">
+    <queryTableFields count="11">
       <queryTableField id="2" name="Fälle kumulativ"/>
       <queryTableField id="18" dataBound="0" fillFormulas="1"/>
       <queryTableField id="17" dataBound="0" fillFormulas="1"/>
@@ -816,6 +795,7 @@
       <queryTableField id="5" dataBound="0" fillFormulas="1"/>
       <queryTableField id="20" dataBound="0" fillFormulas="1"/>
       <queryTableField id="19" dataBound="0" fillFormulas="1"/>
+      <queryTableField id="22" dataBound="0" fillFormulas="1"/>
       <queryTableField id="10" dataBound="0" fillFormulas="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="6">
@@ -1195,9 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1320,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,69 +1314,72 @@
     <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="11" max="12" width="11.42578125" style="32"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="75" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="71" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="71" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="O2" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="74"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1411,8 +1392,8 @@
       <c r="G3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="59"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1422,10 +1403,13 @@
       <c r="L3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="59"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="57"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1433,43 +1417,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>1110507</v>
+        <v>1146529</v>
       </c>
       <c r="D4" s="10">
-        <v>760957</v>
+        <v>787088</v>
       </c>
       <c r="E4" s="10">
-        <v>534688</v>
+        <v>545118</v>
       </c>
       <c r="F4" s="10">
-        <v>34487</v>
+        <v>35094</v>
       </c>
       <c r="G4" s="10">
-        <v>191782</v>
+        <v>206876</v>
       </c>
       <c r="H4" s="10">
-        <v>23873</v>
+        <v>24695</v>
       </c>
       <c r="I4" s="25">
-        <v>6.8552251388554319</v>
+        <v>7.0906311974151555</v>
       </c>
       <c r="J4" s="22">
-        <v>349550</v>
+        <v>359441</v>
       </c>
       <c r="K4" s="10">
-        <v>337734</v>
+        <v>346662</v>
       </c>
       <c r="L4" s="10">
-        <v>11816</v>
-      </c>
-      <c r="M4" s="11">
-        <v>9281</v>
-      </c>
-      <c r="N4" s="42">
-        <v>3.1489873242337167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12779</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>9774</v>
+      </c>
+      <c r="O4" s="42">
+        <v>3.2380922695176402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1477,43 +1464,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1454715</v>
+        <v>1501539</v>
       </c>
       <c r="D5" s="15">
-        <v>987892</v>
+        <v>1024577</v>
       </c>
       <c r="E5" s="15">
-        <v>737636</v>
+        <v>757376</v>
       </c>
       <c r="F5" s="15">
-        <v>39206</v>
+        <v>41182</v>
       </c>
       <c r="G5" s="15">
-        <v>211050</v>
+        <v>226019</v>
       </c>
       <c r="H5" s="16">
-        <v>33140</v>
+        <v>36685</v>
       </c>
       <c r="I5" s="17">
-        <v>7.5269470161573526</v>
+        <v>7.8064573789173837</v>
       </c>
       <c r="J5" s="23">
-        <v>466823</v>
+        <v>476962</v>
       </c>
       <c r="K5" s="15">
-        <v>455261</v>
+        <v>465357</v>
       </c>
       <c r="L5" s="15">
-        <v>11562</v>
-      </c>
-      <c r="M5" s="16">
-        <v>10633</v>
-      </c>
-      <c r="N5" s="17">
-        <v>3.5568179385232637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11591</v>
+      </c>
+      <c r="M5" s="15">
+        <v>14</v>
+      </c>
+      <c r="N5" s="16">
+        <v>10128</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3.6340690102971203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -1521,43 +1511,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>387109</v>
+        <v>397417</v>
       </c>
       <c r="D6" s="10">
-        <v>251855</v>
+        <v>260284</v>
       </c>
       <c r="E6" s="10">
-        <v>200089</v>
+        <v>205124</v>
       </c>
       <c r="F6" s="10">
-        <v>14078</v>
+        <v>14965</v>
       </c>
       <c r="G6" s="10">
-        <v>37688</v>
+        <v>40195</v>
       </c>
       <c r="H6" s="11">
-        <v>7681</v>
+        <v>8429</v>
       </c>
       <c r="I6" s="12">
-        <v>6.8634859712150815</v>
+        <v>7.0931908539903761</v>
       </c>
       <c r="J6" s="22">
-        <v>135254</v>
+        <v>137133</v>
       </c>
       <c r="K6" s="10">
-        <v>131311</v>
+        <v>133070</v>
       </c>
       <c r="L6" s="10">
-        <v>3943</v>
-      </c>
-      <c r="M6" s="11">
-        <v>2001</v>
-      </c>
-      <c r="N6" s="12">
-        <v>3.6859063014461677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4063</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1879</v>
+      </c>
+      <c r="O6" s="12">
+        <v>3.7371123133971444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1565,43 +1558,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>230157</v>
+        <v>242547</v>
       </c>
       <c r="D7" s="15">
-        <v>150903</v>
+        <v>162614</v>
       </c>
       <c r="E7" s="15">
-        <v>100401</v>
+        <v>104397</v>
       </c>
       <c r="F7" s="15">
-        <v>5952</v>
+        <v>7080</v>
       </c>
       <c r="G7" s="15">
-        <v>44550</v>
+        <v>51137</v>
       </c>
       <c r="H7" s="16">
-        <v>8529</v>
+        <v>9709</v>
       </c>
       <c r="I7" s="17">
-        <v>5.9837193727093094</v>
+        <v>6.4480927620640536</v>
       </c>
       <c r="J7" s="23">
-        <v>79254</v>
+        <v>79933</v>
       </c>
       <c r="K7" s="15">
-        <v>75882</v>
+        <v>76215</v>
       </c>
       <c r="L7" s="15">
-        <v>3372</v>
-      </c>
-      <c r="M7" s="16">
-        <v>430</v>
-      </c>
-      <c r="N7" s="17">
-        <v>3.1426392793032853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3717</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <v>668</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3.1695634985306671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1609,43 +1605,46 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>77764</v>
+        <v>80087</v>
       </c>
       <c r="D8" s="10">
-        <v>53856</v>
+        <v>55738</v>
       </c>
       <c r="E8" s="10">
-        <v>35852</v>
+        <v>36553</v>
       </c>
       <c r="F8" s="10">
         <v>2994</v>
       </c>
       <c r="G8" s="10">
-        <v>15010</v>
+        <v>16191</v>
       </c>
       <c r="H8" s="11">
-        <v>1945</v>
+        <v>1885</v>
       </c>
       <c r="I8" s="12">
-        <v>7.9060249382708792</v>
+        <v>8.1823012850813708</v>
       </c>
       <c r="J8" s="22">
-        <v>23908</v>
+        <v>24349</v>
       </c>
       <c r="K8" s="10">
-        <v>22654</v>
+        <v>23095</v>
       </c>
       <c r="L8" s="10">
         <v>1254</v>
       </c>
-      <c r="M8" s="11">
-        <v>276</v>
-      </c>
-      <c r="N8" s="12">
-        <v>3.5096784800984144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>441</v>
+      </c>
+      <c r="O8" s="12">
+        <v>3.5744169864445494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1653,43 +1652,46 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>200591</v>
+        <v>206083</v>
       </c>
       <c r="D9" s="15">
-        <v>135475</v>
+        <v>139712</v>
       </c>
       <c r="E9" s="15">
-        <v>93704</v>
+        <v>95191</v>
       </c>
       <c r="F9" s="15">
-        <v>4872</v>
+        <v>5433</v>
       </c>
       <c r="G9" s="15">
-        <v>36899</v>
+        <v>39088</v>
       </c>
       <c r="H9" s="16">
-        <v>4118</v>
+        <v>3695</v>
       </c>
       <c r="I9" s="17">
-        <v>7.3338627681210964</v>
+        <v>7.5632303750487893</v>
       </c>
       <c r="J9" s="23">
-        <v>65116</v>
+        <v>66371</v>
       </c>
       <c r="K9" s="15">
-        <v>63579</v>
+        <v>64784</v>
       </c>
       <c r="L9" s="15">
-        <v>1537</v>
-      </c>
-      <c r="M9" s="16">
-        <v>1020</v>
-      </c>
-      <c r="N9" s="17">
-        <v>3.5250179590992676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1197</v>
+      </c>
+      <c r="O9" s="17">
+        <v>3.5929566767519119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1697,43 +1699,46 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>621669</v>
+        <v>644808</v>
       </c>
       <c r="D10" s="10">
-        <v>431409</v>
+        <v>449365</v>
       </c>
       <c r="E10" s="10">
-        <v>335919</v>
+        <v>344337</v>
       </c>
       <c r="F10" s="10">
-        <v>15003</v>
+        <v>15823</v>
       </c>
       <c r="G10" s="10">
-        <v>80487</v>
+        <v>89205</v>
       </c>
       <c r="H10" s="11">
-        <v>17627</v>
+        <v>17956</v>
       </c>
       <c r="I10" s="12">
-        <v>6.8607428658668468</v>
+        <v>7.1462990292744362</v>
       </c>
       <c r="J10" s="22">
-        <v>190260</v>
+        <v>195443</v>
       </c>
       <c r="K10" s="10">
-        <v>187943</v>
+        <v>192716</v>
       </c>
       <c r="L10" s="10">
-        <v>2317</v>
-      </c>
-      <c r="M10" s="11">
-        <v>5431</v>
-      </c>
-      <c r="N10" s="12">
-        <v>3.0257248635513543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2690</v>
+      </c>
+      <c r="M10" s="10">
+        <v>37</v>
+      </c>
+      <c r="N10" s="11">
+        <v>5146</v>
+      </c>
+      <c r="O10" s="12">
+        <v>3.1081506596608186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -1741,43 +1746,46 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>160859</v>
+        <v>166136</v>
       </c>
       <c r="D11" s="15">
-        <v>104531</v>
+        <v>109391</v>
       </c>
       <c r="E11" s="15">
-        <v>86008</v>
+        <v>88602</v>
       </c>
       <c r="F11" s="15">
-        <v>5919</v>
+        <v>6319</v>
       </c>
       <c r="G11" s="15">
-        <v>12604</v>
+        <v>14470</v>
       </c>
       <c r="H11" s="16">
-        <v>4306</v>
+        <v>4683</v>
       </c>
       <c r="I11" s="17">
-        <v>6.5001262329476699</v>
+        <v>6.8023391027386957</v>
       </c>
       <c r="J11" s="23">
-        <v>56328</v>
+        <v>56745</v>
       </c>
       <c r="K11" s="15">
-        <v>55114</v>
+        <v>55463</v>
       </c>
       <c r="L11" s="15">
-        <v>1214</v>
-      </c>
-      <c r="M11" s="16">
-        <v>1176</v>
-      </c>
-      <c r="N11" s="17">
-        <v>3.5026844711088225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+      <c r="M11" s="15">
+        <v>8</v>
+      </c>
+      <c r="N11" s="16">
+        <v>408</v>
+      </c>
+      <c r="O11" s="17">
+        <v>3.5286150815415094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1785,43 +1793,46 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>746085</v>
+        <v>776788</v>
       </c>
       <c r="D12" s="10">
-        <v>520719</v>
+        <v>539440</v>
       </c>
       <c r="E12" s="10">
-        <v>405169</v>
+        <v>415466</v>
       </c>
       <c r="F12" s="10">
-        <v>17188</v>
+        <v>17995</v>
       </c>
       <c r="G12" s="10">
-        <v>98362</v>
+        <v>105979</v>
       </c>
       <c r="H12" s="11">
-        <v>15945</v>
+        <v>16222</v>
       </c>
       <c r="I12" s="12">
-        <v>6.5141923396794033</v>
+        <v>6.74839196518018</v>
       </c>
       <c r="J12" s="22">
-        <v>225366</v>
+        <v>237348</v>
       </c>
       <c r="K12" s="10">
-        <v>221691</v>
+        <v>233428</v>
       </c>
       <c r="L12" s="10">
-        <v>3675</v>
-      </c>
-      <c r="M12" s="11">
-        <v>10196</v>
-      </c>
-      <c r="N12" s="12">
-        <v>2.8193276427865865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3920</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>11523</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2.9692224087045549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1829,43 +1840,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>1741664</v>
+        <v>1798934</v>
       </c>
       <c r="D13" s="15">
-        <v>1194725</v>
+        <v>1240927</v>
       </c>
       <c r="E13" s="15">
-        <v>907470</v>
+        <v>921309</v>
       </c>
       <c r="F13" s="15">
-        <v>27354</v>
+        <v>28360</v>
       </c>
       <c r="G13" s="15">
-        <v>259901</v>
+        <v>291258</v>
       </c>
       <c r="H13" s="16">
-        <v>38024</v>
+        <v>43124</v>
       </c>
       <c r="I13" s="17">
-        <v>6.656880193317952</v>
+        <v>6.9143128064227888</v>
       </c>
       <c r="J13" s="23">
-        <v>546939</v>
+        <v>558007</v>
       </c>
       <c r="K13" s="15">
-        <v>534306</v>
+        <v>544308</v>
       </c>
       <c r="L13" s="15">
-        <v>12633</v>
-      </c>
-      <c r="M13" s="16">
-        <v>15560</v>
-      </c>
-      <c r="N13" s="17">
-        <v>3.0474857360925127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13632</v>
+      </c>
+      <c r="M13" s="15">
+        <v>67</v>
+      </c>
+      <c r="N13" s="16">
+        <v>9466</v>
+      </c>
+      <c r="O13" s="17">
+        <v>3.1091554508633954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1873,43 +1887,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>445361</v>
+        <v>459612</v>
       </c>
       <c r="D14" s="10">
-        <v>302015</v>
+        <v>316025</v>
       </c>
       <c r="E14" s="10">
-        <v>208265</v>
+        <v>211115</v>
       </c>
       <c r="F14" s="10">
         <v>4543</v>
       </c>
       <c r="G14" s="10">
-        <v>89207</v>
+        <v>100367</v>
       </c>
       <c r="H14" s="11">
-        <v>13424</v>
+        <v>13084</v>
       </c>
       <c r="I14" s="12">
-        <v>7.377189933420504</v>
+        <v>7.7194061510495002</v>
       </c>
       <c r="J14" s="22">
-        <v>143346</v>
+        <v>143587</v>
       </c>
       <c r="K14" s="10">
-        <v>139498</v>
+        <v>139739</v>
       </c>
       <c r="L14" s="10">
         <v>3848</v>
       </c>
-      <c r="M14" s="11">
-        <v>192</v>
-      </c>
-      <c r="N14" s="12">
-        <v>3.5014508160061437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>184</v>
+      </c>
+      <c r="O14" s="12">
+        <v>3.5073376188932666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1917,43 +1934,46 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>107685</v>
+        <v>111578</v>
       </c>
       <c r="D15" s="15">
-        <v>78174</v>
+        <v>80833</v>
       </c>
       <c r="E15" s="15">
-        <v>54932</v>
+        <v>56102</v>
       </c>
       <c r="F15" s="15">
-        <v>2862</v>
+        <v>3045</v>
       </c>
       <c r="G15" s="15">
-        <v>20380</v>
+        <v>21686</v>
       </c>
       <c r="H15" s="16">
-        <v>2486</v>
+        <v>2540</v>
       </c>
       <c r="I15" s="17">
-        <v>7.921271634949087</v>
+        <v>8.1907047108736855</v>
       </c>
       <c r="J15" s="23">
-        <v>29511</v>
+        <v>30745</v>
       </c>
       <c r="K15" s="15">
-        <v>28193</v>
+        <v>29426</v>
       </c>
       <c r="L15" s="15">
-        <v>1318</v>
-      </c>
-      <c r="M15" s="16">
-        <v>1357</v>
-      </c>
-      <c r="N15" s="17">
-        <v>2.9903119607411996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1234</v>
+      </c>
+      <c r="O15" s="17">
+        <v>3.1153516056042894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1961,43 +1981,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>410939</v>
+        <v>421766</v>
       </c>
       <c r="D16" s="10">
-        <v>289566</v>
+        <v>296334</v>
       </c>
       <c r="E16" s="10">
-        <v>250774</v>
+        <v>254908</v>
       </c>
       <c r="F16" s="10">
-        <v>12866</v>
+        <v>12928</v>
       </c>
       <c r="G16" s="10">
-        <v>25926</v>
+        <v>28498</v>
       </c>
       <c r="H16" s="11">
-        <v>6645</v>
+        <v>6768</v>
       </c>
       <c r="I16" s="12">
-        <v>7.1111999569741524</v>
+        <v>7.2774093921592273</v>
       </c>
       <c r="J16" s="22">
-        <v>121373</v>
+        <v>125432</v>
       </c>
       <c r="K16" s="10">
-        <v>119653</v>
+        <v>123524</v>
       </c>
       <c r="L16" s="10">
-        <v>1720</v>
-      </c>
-      <c r="M16" s="11">
-        <v>3514</v>
-      </c>
-      <c r="N16" s="12">
-        <v>2.9806941159453251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1908</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>4059</v>
+      </c>
+      <c r="O16" s="12">
+        <v>3.0803755724193516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2005,43 +2028,46 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>202848</v>
+        <v>210183</v>
       </c>
       <c r="D17" s="15">
-        <v>137976</v>
+        <v>143478</v>
       </c>
       <c r="E17" s="15">
-        <v>98931</v>
+        <v>102007</v>
       </c>
       <c r="F17" s="15">
-        <v>7179</v>
+        <v>7229</v>
       </c>
       <c r="G17" s="15">
-        <v>31866</v>
+        <v>34242</v>
       </c>
       <c r="H17" s="16">
-        <v>5587</v>
+        <v>5502</v>
       </c>
       <c r="I17" s="17">
-        <v>6.2865469098981119</v>
+        <v>6.5372323993909189</v>
       </c>
       <c r="J17" s="23">
-        <v>64872</v>
+        <v>66705</v>
       </c>
       <c r="K17" s="15">
-        <v>63178</v>
+        <v>65011</v>
       </c>
       <c r="L17" s="15">
         <v>1694</v>
       </c>
-      <c r="M17" s="16">
-        <v>1202</v>
-      </c>
-      <c r="N17" s="17">
-        <v>2.9557377452521481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1833</v>
+      </c>
+      <c r="O17" s="17">
+        <v>3.0392540124713983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2049,43 +2075,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>303434</v>
+        <v>313872</v>
       </c>
       <c r="D18" s="10">
-        <v>205395</v>
+        <v>215322</v>
       </c>
       <c r="E18" s="10">
-        <v>152535</v>
+        <v>157700</v>
       </c>
       <c r="F18" s="10">
-        <v>6515</v>
+        <v>6982</v>
       </c>
       <c r="G18" s="10">
-        <v>46345</v>
+        <v>50640</v>
       </c>
       <c r="H18" s="11">
-        <v>6330</v>
+        <v>8663</v>
       </c>
       <c r="I18" s="12">
-        <v>7.0733834910649014</v>
+        <v>7.4152490570027343</v>
       </c>
       <c r="J18" s="22">
-        <v>98039</v>
+        <v>98550</v>
       </c>
       <c r="K18" s="10">
-        <v>96322</v>
+        <v>96747</v>
       </c>
       <c r="L18" s="10">
-        <v>1717</v>
-      </c>
-      <c r="M18" s="11">
-        <v>96</v>
-      </c>
-      <c r="N18" s="12">
-        <v>3.3762625384284517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1798</v>
+      </c>
+      <c r="M18" s="10">
+        <v>5</v>
+      </c>
+      <c r="N18" s="11">
+        <v>275</v>
+      </c>
+      <c r="O18" s="12">
+        <v>3.3938603327463959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2093,43 +2122,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>229877</v>
+        <v>238775</v>
       </c>
       <c r="D19" s="15">
-        <v>151124</v>
+        <v>157423</v>
       </c>
       <c r="E19" s="15">
-        <v>116075</v>
+        <v>118795</v>
       </c>
       <c r="F19" s="15">
         <v>8315</v>
       </c>
       <c r="G19" s="15">
-        <v>26734</v>
+        <v>30313</v>
       </c>
       <c r="H19" s="16">
-        <v>2952</v>
+        <v>4929</v>
       </c>
       <c r="I19" s="17">
-        <v>7.0837891831639768</v>
+        <v>7.3790486261693893</v>
       </c>
       <c r="J19" s="23">
-        <v>78753</v>
+        <v>81352</v>
       </c>
       <c r="K19" s="15">
-        <v>76075</v>
+        <v>78674</v>
       </c>
       <c r="L19" s="15">
         <v>2678</v>
       </c>
-      <c r="M19" s="16">
-        <v>2694</v>
-      </c>
-      <c r="N19" s="17">
-        <v>3.6914695848555668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>2561</v>
+      </c>
+      <c r="O19" s="17">
+        <v>3.8132951591326054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2164,95 +2196,100 @@
       <c r="L20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10"/>
+      <c r="N20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>8431264</v>
+        <v>8716654</v>
       </c>
       <c r="D21" s="44">
-        <v>5756572</v>
+        <v>5978551</v>
       </c>
       <c r="E21" s="44">
-        <v>4318448</v>
+        <v>4414100</v>
       </c>
       <c r="F21" s="44">
-        <v>209333</v>
+        <v>218287</v>
       </c>
       <c r="G21" s="44">
-        <v>1228791</v>
+        <v>1346164</v>
       </c>
       <c r="H21" s="44">
-        <v>192612</v>
+        <v>208569</v>
       </c>
       <c r="I21" s="47">
-        <v>6.9217261699816417</v>
+        <v>7.1886346449362408</v>
       </c>
       <c r="J21" s="48">
-        <v>2674692</v>
+        <v>2738103</v>
       </c>
       <c r="K21" s="44">
-        <v>2608394</v>
+        <v>2668219</v>
       </c>
       <c r="L21" s="44">
-        <v>66298</v>
+        <v>69752</v>
       </c>
       <c r="M21" s="44">
-        <v>65059</v>
-      </c>
-      <c r="N21" s="47">
-        <v>3.216060810677003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="N21" s="44">
+        <v>60776</v>
+      </c>
+      <c r="O21" s="47">
+        <v>3.292306461415794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J1:O1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2267,7 +2304,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,28 +2322,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="60" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2340,28 +2377,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>368339</v>
+        <v>376084</v>
       </c>
       <c r="D3" s="11">
-        <v>326361</v>
+        <v>340423</v>
       </c>
       <c r="E3" s="11">
-        <v>33474</v>
+        <v>36447</v>
       </c>
       <c r="F3" s="14">
-        <v>87205</v>
+        <v>88000</v>
       </c>
       <c r="G3" s="13">
-        <v>202629</v>
+        <v>209703</v>
       </c>
       <c r="H3" s="11">
-        <v>122576</v>
+        <v>124858</v>
       </c>
       <c r="I3" s="11">
-        <v>8191</v>
+        <v>8297</v>
       </c>
       <c r="J3" s="14">
-        <v>66110</v>
+        <v>67651</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2372,28 +2409,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>428731</v>
+        <v>447890</v>
       </c>
       <c r="D4" s="16">
-        <v>445657</v>
+        <v>459156</v>
       </c>
       <c r="E4" s="16">
-        <v>60443</v>
+        <v>64916</v>
       </c>
       <c r="F4" s="18">
-        <v>127593</v>
+        <v>128965</v>
       </c>
       <c r="G4" s="19">
-        <v>184559</v>
+        <v>191926</v>
       </c>
       <c r="H4" s="16">
-        <v>219765</v>
+        <v>222050</v>
       </c>
       <c r="I4" s="16">
-        <v>11802</v>
+        <v>12177</v>
       </c>
       <c r="J4" s="18">
-        <v>101651</v>
+        <v>102159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2404,28 +2441,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>174886</v>
+        <v>181014</v>
       </c>
       <c r="D5" s="11">
-        <v>79618</v>
+        <v>82263</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>43832</v>
+        <v>43976</v>
       </c>
       <c r="G5" s="13">
-        <v>101697</v>
+        <v>103287</v>
       </c>
       <c r="H5" s="11">
-        <v>31640</v>
+        <v>31993</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>37954</v>
+        <v>38228</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2436,28 +2473,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>60260</v>
+        <v>65615</v>
       </c>
       <c r="D6" s="16">
-        <v>79625</v>
+        <v>84533</v>
       </c>
       <c r="E6" s="16">
-        <v>9380</v>
+        <v>10869</v>
       </c>
       <c r="F6" s="18">
-        <v>23803</v>
+        <v>24112</v>
       </c>
       <c r="G6" s="19">
-        <v>36353</v>
+        <v>36869</v>
       </c>
       <c r="H6" s="16">
-        <v>41291</v>
+        <v>41436</v>
       </c>
       <c r="I6" s="16">
-        <v>1179</v>
+        <v>1216</v>
       </c>
       <c r="J6" s="18">
-        <v>17595</v>
+        <v>17605</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2468,28 +2505,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>22663</v>
+        <v>23281</v>
       </c>
       <c r="D7" s="11">
-        <v>26469</v>
+        <v>27625</v>
       </c>
       <c r="E7" s="11">
-        <v>1072</v>
+        <v>1138</v>
       </c>
       <c r="F7" s="14">
-        <v>8429</v>
+        <v>8476</v>
       </c>
       <c r="G7" s="13">
-        <v>11688</v>
+        <v>12028</v>
       </c>
       <c r="H7" s="11">
-        <v>9157</v>
+        <v>9243</v>
       </c>
       <c r="I7" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J7" s="14">
-        <v>7091</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2500,28 +2537,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>56511</v>
+        <v>58149</v>
       </c>
       <c r="D8" s="16">
-        <v>70814</v>
+        <v>73248</v>
       </c>
       <c r="E8" s="16">
-        <v>3036</v>
+        <v>3184</v>
       </c>
       <c r="F8" s="18">
-        <v>15945</v>
+        <v>15967</v>
       </c>
       <c r="G8" s="19">
-        <v>28395</v>
+        <v>29348</v>
       </c>
       <c r="H8" s="16">
-        <v>33064</v>
+        <v>33319</v>
       </c>
       <c r="I8" s="16">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J8" s="18">
-        <v>12657</v>
+        <v>12797</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2532,28 +2569,28 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>199388</v>
+        <v>204465</v>
       </c>
       <c r="D9" s="11">
-        <v>179780</v>
+        <v>186956</v>
       </c>
       <c r="E9" s="11">
-        <v>22011</v>
+        <v>25351</v>
       </c>
       <c r="F9" s="14">
-        <v>51292</v>
+        <v>51625</v>
       </c>
       <c r="G9" s="13">
-        <v>98225</v>
+        <v>102280</v>
       </c>
       <c r="H9" s="11">
-        <v>73160</v>
+        <v>74152</v>
       </c>
       <c r="I9" s="11">
-        <v>8543</v>
+        <v>8788</v>
       </c>
       <c r="J9" s="14">
-        <v>36679</v>
+        <v>36974</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,25 +2601,25 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>36989</v>
+        <v>39566</v>
       </c>
       <c r="D10" s="16">
-        <v>42738</v>
+        <v>44603</v>
       </c>
       <c r="E10" s="16">
-        <v>2557</v>
+        <v>2803</v>
       </c>
       <c r="F10" s="18">
-        <v>25819</v>
+        <v>26202</v>
       </c>
       <c r="G10" s="19">
-        <v>14019</v>
+        <v>14370</v>
       </c>
       <c r="H10" s="16">
-        <v>26340</v>
+        <v>26393</v>
       </c>
       <c r="I10" s="16">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="J10" s="18">
         <v>16758</v>
@@ -2596,28 +2633,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>250613</v>
+        <v>261319</v>
       </c>
       <c r="D11" s="11">
-        <v>206812</v>
+        <v>213478</v>
       </c>
       <c r="E11" s="11">
-        <v>48888</v>
+        <v>50465</v>
       </c>
       <c r="F11" s="14">
-        <v>97374</v>
+        <v>97675</v>
       </c>
       <c r="G11" s="13">
-        <v>77888</v>
+        <v>88193</v>
       </c>
       <c r="H11" s="11">
-        <v>100828</v>
+        <v>101715</v>
       </c>
       <c r="I11" s="11">
-        <v>30472</v>
+        <v>30618</v>
       </c>
       <c r="J11" s="14">
-        <v>80351</v>
+        <v>81296</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,28 +2665,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>427020</v>
+        <v>438117</v>
       </c>
       <c r="D12" s="16">
-        <v>632357</v>
+        <v>666405</v>
       </c>
       <c r="E12" s="16">
-        <v>21974</v>
+        <v>22873</v>
       </c>
       <c r="F12" s="18">
-        <v>189543</v>
+        <v>190871</v>
       </c>
       <c r="G12" s="19">
-        <v>142653</v>
+        <v>149849</v>
       </c>
       <c r="H12" s="16">
-        <v>306912</v>
+        <v>310242</v>
       </c>
       <c r="I12" s="16">
-        <v>14685</v>
+        <v>14774</v>
       </c>
       <c r="J12" s="18">
-        <v>149297</v>
+        <v>150784</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2660,28 +2697,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>109090</v>
+        <v>111016</v>
       </c>
       <c r="D13" s="11">
-        <v>150121</v>
+        <v>161210</v>
       </c>
       <c r="E13" s="11">
-        <v>6594</v>
+        <v>7346</v>
       </c>
       <c r="F13" s="14">
-        <v>36210</v>
+        <v>36453</v>
       </c>
       <c r="G13" s="13">
-        <v>52506</v>
+        <v>52619</v>
       </c>
       <c r="H13" s="11">
-        <v>58503</v>
+        <v>58586</v>
       </c>
       <c r="I13" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J13" s="14">
-        <v>32244</v>
+        <v>32285</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2692,28 +2729,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>43670</v>
+        <v>44684</v>
       </c>
       <c r="D14" s="16">
-        <v>28528</v>
+        <v>29514</v>
       </c>
       <c r="E14" s="16">
-        <v>2091</v>
+        <v>2454</v>
       </c>
       <c r="F14" s="18">
-        <v>10592</v>
+        <v>10891</v>
       </c>
       <c r="G14" s="19">
-        <v>18886</v>
+        <v>19835</v>
       </c>
       <c r="H14" s="16">
-        <v>7249</v>
+        <v>7504</v>
       </c>
       <c r="I14" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J14" s="18">
-        <v>9403</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2724,28 +2761,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>118041</v>
+        <v>119726</v>
       </c>
       <c r="D15" s="11">
-        <v>111831</v>
+        <v>114337</v>
       </c>
       <c r="E15" s="11">
-        <v>14775</v>
+        <v>15919</v>
       </c>
       <c r="F15" s="14">
-        <v>33994</v>
+        <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>45410</v>
+        <v>48387</v>
       </c>
       <c r="H15" s="11">
-        <v>52522</v>
+        <v>53129</v>
       </c>
       <c r="I15" s="11">
-        <v>7819</v>
+        <v>8078</v>
       </c>
       <c r="J15" s="14">
-        <v>20274</v>
+        <v>20524</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2756,28 +2793,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>53669</v>
+        <v>56471</v>
       </c>
       <c r="D16" s="16">
-        <v>66053</v>
+        <v>67939</v>
       </c>
       <c r="E16" s="16">
-        <v>6740</v>
+        <v>7250</v>
       </c>
       <c r="F16" s="18">
-        <v>31768</v>
+        <v>32387</v>
       </c>
       <c r="G16" s="19">
-        <v>25320</v>
+        <v>26263</v>
       </c>
       <c r="H16" s="16">
-        <v>31144</v>
+        <v>31501</v>
       </c>
       <c r="I16" s="16">
-        <v>3412</v>
+        <v>3549</v>
       </c>
       <c r="J16" s="18">
-        <v>19484</v>
+        <v>20288</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2788,28 +2825,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>89670</v>
+        <v>94051</v>
       </c>
       <c r="D17" s="11">
-        <v>87071</v>
+        <v>91391</v>
       </c>
       <c r="E17" s="11">
-        <v>10149</v>
+        <v>10595</v>
       </c>
       <c r="F17" s="14">
-        <v>53030</v>
+        <v>54816</v>
       </c>
       <c r="G17" s="13">
-        <v>41532</v>
+        <v>41668</v>
       </c>
       <c r="H17" s="11">
-        <v>36661</v>
+        <v>36883</v>
       </c>
       <c r="I17" s="11">
-        <v>8866</v>
+        <v>8869</v>
       </c>
       <c r="J17" s="14">
-        <v>42068</v>
+        <v>42329</v>
       </c>
       <c r="K17" s="32"/>
     </row>
@@ -2821,28 +2858,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>73072</v>
+        <v>76278</v>
       </c>
       <c r="D18" s="16">
-        <v>65717</v>
+        <v>66923</v>
       </c>
       <c r="E18" s="16">
-        <v>8121</v>
+        <v>9754</v>
       </c>
       <c r="F18" s="18">
-        <v>24731</v>
+        <v>25127</v>
       </c>
       <c r="G18" s="16">
-        <v>41010</v>
+        <v>42986</v>
       </c>
       <c r="H18" s="16">
-        <v>31952</v>
+        <v>32534</v>
       </c>
       <c r="I18" s="16">
-        <v>3562</v>
+        <v>3655</v>
       </c>
       <c r="J18" s="18">
-        <v>15313</v>
+        <v>15757</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,28 +2918,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2512612</v>
+        <v>2597726</v>
       </c>
       <c r="D20" s="50">
-        <v>2599552</v>
+        <v>2710004</v>
       </c>
       <c r="E20" s="50">
-        <v>251455</v>
+        <v>271514</v>
       </c>
       <c r="F20" s="51">
-        <v>861160</v>
+        <v>869538</v>
       </c>
       <c r="G20" s="49">
-        <v>1122770</v>
+        <v>1169611</v>
       </c>
       <c r="H20" s="50">
-        <v>1182764</v>
+        <v>1195538</v>
       </c>
       <c r="I20" s="50">
-        <v>99828</v>
+        <v>101348</v>
       </c>
       <c r="J20" s="51">
-        <v>664929</v>
+        <v>672156</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2921,18 +2958,18 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
@@ -2957,9 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3016,13 +3051,13 @@
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>42655</v>
+        <v>42653</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>42655</v>
+        <v>42653</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3030,13 +3065,13 @@
         <v>44195</v>
       </c>
       <c r="B5" s="33">
-        <v>58003</v>
+        <v>58002</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>58003</v>
+        <v>58002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,13 +3107,13 @@
         <v>44198</v>
       </c>
       <c r="B8" s="33">
-        <v>52056</v>
+        <v>52184</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>52056</v>
+        <v>52184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3086,13 +3121,13 @@
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24989</v>
+        <v>24987</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24989</v>
+        <v>24987</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,13 +3135,13 @@
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48651</v>
+        <v>48646</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48651</v>
+        <v>48646</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3114,13 +3149,13 @@
         <v>44201</v>
       </c>
       <c r="B11" s="33">
-        <v>52461</v>
+        <v>52458</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>52461</v>
+        <v>52458</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,13 +3177,13 @@
         <v>44203</v>
       </c>
       <c r="B13" s="33">
-        <v>58464</v>
+        <v>58466</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>58464</v>
+        <v>58466</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,13 +3191,13 @@
         <v>44204</v>
       </c>
       <c r="B14" s="33">
-        <v>60339</v>
+        <v>60450</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>60339</v>
+        <v>60450</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,13 +3205,13 @@
         <v>44205</v>
       </c>
       <c r="B15" s="33">
-        <v>57192</v>
+        <v>57204</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>57192</v>
+        <v>57204</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,13 +3219,13 @@
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>33284</v>
+        <v>33282</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>33284</v>
+        <v>33282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3198,13 +3233,13 @@
         <v>44207</v>
       </c>
       <c r="B17" s="33">
-        <v>65669</v>
+        <v>65670</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <v>65669</v>
+        <v>65670</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,13 +3247,13 @@
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82183</v>
+        <v>82092</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82183</v>
+        <v>82092</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,13 +3261,13 @@
         <v>44209</v>
       </c>
       <c r="B19" s="33">
-        <v>99036</v>
+        <v>99087</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>99036</v>
+        <v>99087</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,13 +3275,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>100036</v>
+        <v>100076</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>100150</v>
+        <v>100190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,13 +3303,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="33">
-        <v>56713</v>
+        <v>56711</v>
       </c>
       <c r="C22" s="33">
         <v>397</v>
       </c>
       <c r="D22" s="33">
-        <v>57110</v>
+        <v>57108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,13 +3373,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>60707</v>
+        <v>60705</v>
       </c>
       <c r="C27" s="33">
-        <v>35434</v>
+        <v>35435</v>
       </c>
       <c r="D27" s="33">
-        <v>96141</v>
+        <v>96140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,13 +3387,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="33">
-        <v>84250</v>
+        <v>84248</v>
       </c>
       <c r="C28" s="33">
-        <v>31289</v>
+        <v>31288</v>
       </c>
       <c r="D28" s="33">
-        <v>115539</v>
+        <v>115536</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,13 +3401,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="33">
-        <v>48963</v>
+        <v>48964</v>
       </c>
       <c r="C29" s="33">
         <v>43848</v>
       </c>
       <c r="D29" s="33">
-        <v>92811</v>
+        <v>92812</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3394,13 +3429,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>58195</v>
+        <v>58193</v>
       </c>
       <c r="C31" s="33">
-        <v>39733</v>
+        <v>39740</v>
       </c>
       <c r="D31" s="33">
-        <v>97928</v>
+        <v>97933</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,13 +3443,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>53109</v>
+        <v>53110</v>
       </c>
       <c r="C32" s="33">
-        <v>49608</v>
+        <v>49609</v>
       </c>
       <c r="D32" s="33">
-        <v>102717</v>
+        <v>102719</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,13 +3457,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>54056</v>
+        <v>54055</v>
       </c>
       <c r="C33" s="33">
         <v>59285</v>
       </c>
       <c r="D33" s="33">
-        <v>113341</v>
+        <v>113340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,10 +3474,10 @@
         <v>51579</v>
       </c>
       <c r="C34" s="33">
-        <v>49012</v>
+        <v>49014</v>
       </c>
       <c r="D34" s="33">
-        <v>100591</v>
+        <v>100593</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,13 +3485,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="33">
-        <v>55944</v>
+        <v>55984</v>
       </c>
       <c r="C35" s="33">
-        <v>53519</v>
+        <v>53754</v>
       </c>
       <c r="D35" s="33">
-        <v>109463</v>
+        <v>109738</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,13 +3499,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>39569</v>
+        <v>39568</v>
       </c>
       <c r="C36" s="33">
-        <v>48469</v>
+        <v>48468</v>
       </c>
       <c r="D36" s="33">
-        <v>88038</v>
+        <v>88036</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,13 +3527,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>50046</v>
+        <v>50094</v>
       </c>
       <c r="C38" s="33">
         <v>65861</v>
       </c>
       <c r="D38" s="33">
-        <v>115907</v>
+        <v>115955</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,13 +3541,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>57932</v>
+        <v>57930</v>
       </c>
       <c r="C39" s="33">
         <v>69747</v>
       </c>
       <c r="D39" s="33">
-        <v>127679</v>
+        <v>127677</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,10 +3558,10 @@
         <v>57895</v>
       </c>
       <c r="C40" s="33">
-        <v>84657</v>
+        <v>84656</v>
       </c>
       <c r="D40" s="33">
-        <v>142552</v>
+        <v>142551</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,13 +3569,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>63035</v>
+        <v>63040</v>
       </c>
       <c r="C41" s="33">
-        <v>72478</v>
+        <v>72578</v>
       </c>
       <c r="D41" s="33">
-        <v>135513</v>
+        <v>135618</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,13 +3583,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="33">
-        <v>59473</v>
+        <v>59566</v>
       </c>
       <c r="C42" s="33">
-        <v>73622</v>
+        <v>73640</v>
       </c>
       <c r="D42" s="33">
-        <v>133095</v>
+        <v>133206</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,13 +3597,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>48600</v>
+        <v>48599</v>
       </c>
       <c r="C43" s="33">
         <v>55157</v>
       </c>
       <c r="D43" s="33">
-        <v>103757</v>
+        <v>103756</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,13 +3625,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>54653</v>
+        <v>54690</v>
       </c>
       <c r="C45" s="33">
-        <v>51615</v>
+        <v>51616</v>
       </c>
       <c r="D45" s="33">
-        <v>106268</v>
+        <v>106306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,13 +3639,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>59600</v>
+        <v>59647</v>
       </c>
       <c r="C46" s="33">
         <v>65074</v>
       </c>
       <c r="D46" s="33">
-        <v>124674</v>
+        <v>124721</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,13 +3653,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>75283</v>
+        <v>75278</v>
       </c>
       <c r="C47" s="33">
-        <v>74414</v>
+        <v>74647</v>
       </c>
       <c r="D47" s="33">
-        <v>149697</v>
+        <v>149925</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,13 +3667,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>71448</v>
+        <v>71452</v>
       </c>
       <c r="C48" s="33">
         <v>72423</v>
       </c>
       <c r="D48" s="33">
-        <v>143871</v>
+        <v>143875</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,13 +3681,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>79962</v>
+        <v>79986</v>
       </c>
       <c r="C49" s="33">
-        <v>78333</v>
+        <v>78352</v>
       </c>
       <c r="D49" s="33">
-        <v>158295</v>
+        <v>158338</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,13 +3695,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>63237</v>
+        <v>63262</v>
       </c>
       <c r="C50" s="33">
-        <v>46644</v>
+        <v>46646</v>
       </c>
       <c r="D50" s="33">
-        <v>109881</v>
+        <v>109908</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,13 +3709,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="33">
-        <v>39805</v>
+        <v>39802</v>
       </c>
       <c r="C51" s="33">
-        <v>26983</v>
+        <v>26985</v>
       </c>
       <c r="D51" s="33">
-        <v>66788</v>
+        <v>66787</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,13 +3723,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>70812</v>
+        <v>70810</v>
       </c>
       <c r="C52" s="33">
         <v>56021</v>
       </c>
       <c r="D52" s="33">
-        <v>126833</v>
+        <v>126831</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3702,13 +3737,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="33">
-        <v>81500</v>
+        <v>81507</v>
       </c>
       <c r="C53" s="33">
-        <v>54760</v>
+        <v>54758</v>
       </c>
       <c r="D53" s="33">
-        <v>136260</v>
+        <v>136265</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3716,13 +3751,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>94431</v>
+        <v>94518</v>
       </c>
       <c r="C54" s="33">
-        <v>54636</v>
+        <v>54638</v>
       </c>
       <c r="D54" s="33">
-        <v>149067</v>
+        <v>149156</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3730,13 +3765,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>93264</v>
+        <v>93293</v>
       </c>
       <c r="C55" s="33">
-        <v>52035</v>
+        <v>52036</v>
       </c>
       <c r="D55" s="33">
-        <v>145299</v>
+        <v>145329</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3744,13 +3779,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96643</v>
+        <v>96641</v>
       </c>
       <c r="C56" s="33">
-        <v>53487</v>
+        <v>53486</v>
       </c>
       <c r="D56" s="33">
-        <v>150130</v>
+        <v>150127</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3758,13 +3793,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>74924</v>
+        <v>74921</v>
       </c>
       <c r="C57" s="33">
         <v>37636</v>
       </c>
       <c r="D57" s="33">
-        <v>112560</v>
+        <v>112557</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3772,13 +3807,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="33">
-        <v>56643</v>
+        <v>56642</v>
       </c>
       <c r="C58" s="33">
         <v>28942</v>
       </c>
       <c r="D58" s="33">
-        <v>85585</v>
+        <v>85584</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3786,13 +3821,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98944</v>
+        <v>98946</v>
       </c>
       <c r="C59" s="33">
-        <v>52949</v>
+        <v>52956</v>
       </c>
       <c r="D59" s="33">
-        <v>151893</v>
+        <v>151902</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3800,13 +3835,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>103864</v>
+        <v>103889</v>
       </c>
       <c r="C60" s="33">
-        <v>55636</v>
+        <v>55638</v>
       </c>
       <c r="D60" s="33">
-        <v>159500</v>
+        <v>159527</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3814,13 +3849,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116434</v>
+        <v>116534</v>
       </c>
       <c r="C61" s="33">
-        <v>57875</v>
+        <v>57933</v>
       </c>
       <c r="D61" s="33">
-        <v>174309</v>
+        <v>174467</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3828,13 +3863,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>127038</v>
+        <v>127051</v>
       </c>
       <c r="C62" s="33">
-        <v>52282</v>
+        <v>52290</v>
       </c>
       <c r="D62" s="33">
-        <v>179320</v>
+        <v>179341</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3842,13 +3877,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>135777</v>
+        <v>135873</v>
       </c>
       <c r="C63" s="33">
-        <v>58381</v>
+        <v>58470</v>
       </c>
       <c r="D63" s="33">
-        <v>194158</v>
+        <v>194343</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3856,13 +3891,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>107552</v>
+        <v>107587</v>
       </c>
       <c r="C64" s="33">
-        <v>38767</v>
+        <v>38766</v>
       </c>
       <c r="D64" s="33">
-        <v>146319</v>
+        <v>146353</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3870,13 +3905,13 @@
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>85636</v>
+        <v>85656</v>
       </c>
       <c r="C65" s="33">
         <v>27932</v>
       </c>
       <c r="D65" s="33">
-        <v>113568</v>
+        <v>113588</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3884,13 +3919,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>140493</v>
+        <v>140525</v>
       </c>
       <c r="C66" s="33">
-        <v>50135</v>
+        <v>50255</v>
       </c>
       <c r="D66" s="33">
-        <v>190628</v>
+        <v>190780</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3898,13 +3933,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>157779</v>
+        <v>158566</v>
       </c>
       <c r="C67" s="33">
         <v>55650</v>
       </c>
       <c r="D67" s="33">
-        <v>213429</v>
+        <v>214216</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3912,13 +3947,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>171852</v>
+        <v>172002</v>
       </c>
       <c r="C68" s="33">
-        <v>66810</v>
+        <v>67147</v>
       </c>
       <c r="D68" s="33">
-        <v>238662</v>
+        <v>239149</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,13 +3961,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>174577</v>
+        <v>174730</v>
       </c>
       <c r="C69" s="33">
-        <v>61601</v>
+        <v>61724</v>
       </c>
       <c r="D69" s="33">
-        <v>236178</v>
+        <v>236454</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3940,13 +3975,13 @@
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>182395</v>
+        <v>182743</v>
       </c>
       <c r="C70" s="33">
-        <v>62963</v>
+        <v>63061</v>
       </c>
       <c r="D70" s="33">
-        <v>245358</v>
+        <v>245804</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3954,13 +3989,13 @@
         <v>44261</v>
       </c>
       <c r="B71" s="33">
-        <v>144143</v>
+        <v>144413</v>
       </c>
       <c r="C71" s="33">
-        <v>47122</v>
+        <v>47130</v>
       </c>
       <c r="D71" s="33">
-        <v>191265</v>
+        <v>191543</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -3968,68 +4003,76 @@
         <v>44262</v>
       </c>
       <c r="B72" s="33">
-        <v>112789</v>
+        <v>112917</v>
       </c>
       <c r="C72" s="33">
-        <v>34268</v>
+        <v>34266.5</v>
       </c>
       <c r="D72" s="33">
-        <v>147057</v>
+        <v>147183.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>44263</v>
       </c>
-      <c r="B73" s="56">
-        <v>175195</v>
-      </c>
-      <c r="C73" s="56">
-        <v>53009</v>
-      </c>
-      <c r="D73" s="56">
-        <v>228204</v>
+      <c r="B73" s="54">
+        <v>175671</v>
+      </c>
+      <c r="C73" s="54">
+        <v>53086.5</v>
+      </c>
+      <c r="D73" s="54">
+        <v>228757.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>44264</v>
       </c>
-      <c r="B74" s="56">
-        <v>187182</v>
-      </c>
-      <c r="C74" s="56">
-        <v>54734</v>
-      </c>
-      <c r="D74" s="56">
-        <v>241916</v>
+      <c r="B74" s="54">
+        <v>188569</v>
+      </c>
+      <c r="C74" s="54">
+        <v>54832</v>
+      </c>
+      <c r="D74" s="54">
+        <v>243401</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>44265</v>
       </c>
-      <c r="B75" s="56">
-        <v>192612</v>
-      </c>
-      <c r="C75" s="56">
-        <v>65059</v>
-      </c>
-      <c r="D75" s="56">
-        <v>257671</v>
+      <c r="B75" s="54">
+        <v>201342</v>
+      </c>
+      <c r="C75" s="54">
+        <v>66053</v>
+      </c>
+      <c r="D75" s="54">
+        <v>267395</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
+      <c r="A76" s="38">
+        <v>44266</v>
+      </c>
+      <c r="B76" s="54">
+        <v>208569</v>
+      </c>
+      <c r="C76" s="54">
+        <v>60776</v>
+      </c>
+      <c r="D76" s="54">
+        <v>269345</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
@@ -4037,15 +4080,15 @@
       </c>
       <c r="B78" s="33">
         <f>SUM(B2:B77)</f>
-        <v>5756572</v>
+        <v>5978551</v>
       </c>
       <c r="C78" s="33">
         <f t="shared" ref="C78" si="0">SUM(C2:C77)</f>
-        <v>2674692</v>
+        <v>2738103</v>
       </c>
       <c r="D78" s="33">
         <f>SUM(D2:D77)</f>
-        <v>8431264</v>
+        <v>8716654</v>
       </c>
     </row>
   </sheetData>

--- a/data/impfzahlen.xlsx
+++ b/data/impfzahlen.xlsx
@@ -2,27 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-03-12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13508E3-EF5F-40A6-AC9B-5F42A703F532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F73F7-2D3F-48A5-A822-DCF5852DE112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_11.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_11.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_12.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_12.03." sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_11.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_11.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_11.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_11.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_12.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_12.03.!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_12.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_12.03.!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -234,16 +229,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Datenstand: 12.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 11.03.21 (Gesamt_bis_einschl_11.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 11.03.21 durchgeführt und bis zum 12.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 11.03.21 (Indik_bis_einschl_11.03.21)</t>
+    <t>Datenstand: 13.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 12.03.21 (Gesamt_bis_einschl_12.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 12.03.21 durchgeführt und bis zum 13.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 12.03.21 (Indik_bis_einschl_12.03.21)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +569,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -702,6 +697,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1177,115 +1173,115 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="148.44140625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>56</v>
       </c>
@@ -1304,82 +1300,82 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="5"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="5"/>
     <col min="7" max="7" width="13" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="32"/>
-    <col min="13" max="13" width="12.7109375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" style="32"/>
+    <col min="13" max="13" width="12.6640625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="61"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="67" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="70"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1392,8 +1388,8 @@
       <c r="G3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1406,10 +1402,10 @@
       <c r="M3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="57"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="69"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1417,46 +1413,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="26">
-        <v>1146529</v>
+        <v>1183627</v>
       </c>
       <c r="D4" s="10">
-        <v>787088</v>
+        <v>813088</v>
       </c>
       <c r="E4" s="10">
-        <v>545118</v>
+        <v>557021</v>
       </c>
       <c r="F4" s="10">
-        <v>35094</v>
+        <v>36354</v>
       </c>
       <c r="G4" s="10">
-        <v>206876</v>
+        <v>219713</v>
       </c>
       <c r="H4" s="10">
-        <v>24695</v>
+        <v>24673</v>
       </c>
       <c r="I4" s="25">
-        <v>7.0906311974151555</v>
+        <v>7.3248571176842914</v>
       </c>
       <c r="J4" s="22">
-        <v>359441</v>
+        <v>370539</v>
       </c>
       <c r="K4" s="10">
-        <v>346662</v>
+        <v>356888</v>
       </c>
       <c r="L4" s="10">
-        <v>12779</v>
+        <v>13649</v>
       </c>
       <c r="M4" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="11">
-        <v>9774</v>
+        <v>10735</v>
       </c>
       <c r="O4" s="42">
-        <v>3.2380922695176402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.3380707027155974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1464,46 +1460,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="27">
-        <v>1501539</v>
+        <v>1548393</v>
       </c>
       <c r="D5" s="15">
-        <v>1024577</v>
+        <v>1059729</v>
       </c>
       <c r="E5" s="15">
-        <v>757376</v>
+        <v>773124</v>
       </c>
       <c r="F5" s="15">
-        <v>41182</v>
+        <v>43628</v>
       </c>
       <c r="G5" s="15">
-        <v>226019</v>
+        <v>242977</v>
       </c>
       <c r="H5" s="16">
-        <v>36685</v>
+        <v>35152</v>
       </c>
       <c r="I5" s="17">
-        <v>7.8064573789173837</v>
+        <v>8.0742875076277727</v>
       </c>
       <c r="J5" s="23">
-        <v>476962</v>
+        <v>488664</v>
       </c>
       <c r="K5" s="15">
-        <v>465357</v>
+        <v>476805</v>
       </c>
       <c r="L5" s="15">
-        <v>11591</v>
+        <v>11838</v>
       </c>
       <c r="M5" s="15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N5" s="16">
-        <v>10128</v>
+        <v>11702</v>
       </c>
       <c r="O5" s="17">
-        <v>3.6340690102971203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.7232288921294194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>11</v>
       </c>
@@ -1511,46 +1507,46 @@
         <v>3</v>
       </c>
       <c r="C6" s="26">
-        <v>397417</v>
+        <v>407773</v>
       </c>
       <c r="D6" s="10">
-        <v>260284</v>
+        <v>268888</v>
       </c>
       <c r="E6" s="10">
-        <v>205124</v>
+        <v>209868</v>
       </c>
       <c r="F6" s="10">
-        <v>14965</v>
+        <v>15950</v>
       </c>
       <c r="G6" s="10">
-        <v>40195</v>
+        <v>43070</v>
       </c>
       <c r="H6" s="11">
-        <v>8429</v>
+        <v>8604</v>
       </c>
       <c r="I6" s="12">
-        <v>7.0931908539903761</v>
+        <v>7.3276647905663213</v>
       </c>
       <c r="J6" s="22">
-        <v>137133</v>
+        <v>138885</v>
       </c>
       <c r="K6" s="10">
-        <v>133070</v>
+        <v>134787</v>
       </c>
       <c r="L6" s="10">
-        <v>4063</v>
+        <v>4098</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1879</v>
+        <v>1752</v>
       </c>
       <c r="O6" s="12">
-        <v>3.7371123133971444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.784857354875649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1558,46 +1554,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="27">
-        <v>242547</v>
+        <v>253167</v>
       </c>
       <c r="D7" s="15">
-        <v>162614</v>
+        <v>172734</v>
       </c>
       <c r="E7" s="15">
-        <v>104397</v>
+        <v>108246</v>
       </c>
       <c r="F7" s="15">
-        <v>7080</v>
+        <v>7950</v>
       </c>
       <c r="G7" s="15">
-        <v>51137</v>
+        <v>56538</v>
       </c>
       <c r="H7" s="16">
-        <v>9709</v>
+        <v>10120</v>
       </c>
       <c r="I7" s="17">
-        <v>6.4480927620640536</v>
+        <v>6.8493786215354886</v>
       </c>
       <c r="J7" s="23">
-        <v>79933</v>
+        <v>80433</v>
       </c>
       <c r="K7" s="15">
-        <v>76215</v>
+        <v>76364</v>
       </c>
       <c r="L7" s="15">
-        <v>3717</v>
+        <v>4068</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
       <c r="N7" s="16">
-        <v>668</v>
+        <v>500</v>
       </c>
       <c r="O7" s="17">
-        <v>3.1695634985306671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.189389874986766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1605,46 +1601,46 @@
         <v>4</v>
       </c>
       <c r="C8" s="26">
-        <v>80087</v>
+        <v>82438</v>
       </c>
       <c r="D8" s="10">
-        <v>55738</v>
+        <v>57609</v>
       </c>
       <c r="E8" s="10">
-        <v>36553</v>
+        <v>37164</v>
       </c>
       <c r="F8" s="10">
-        <v>2994</v>
+        <v>3037</v>
       </c>
       <c r="G8" s="10">
-        <v>16191</v>
+        <v>17408</v>
       </c>
       <c r="H8" s="11">
-        <v>1885</v>
+        <v>1852</v>
       </c>
       <c r="I8" s="12">
-        <v>8.1823012850813708</v>
+        <v>8.4569628392165619</v>
       </c>
       <c r="J8" s="22">
-        <v>24349</v>
+        <v>24829</v>
       </c>
       <c r="K8" s="10">
-        <v>23095</v>
+        <v>23519</v>
       </c>
       <c r="L8" s="10">
-        <v>1254</v>
+        <v>1310</v>
       </c>
       <c r="M8" s="10">
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="O8" s="12">
-        <v>3.5744169864445494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.6448806668212952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1652,46 +1648,46 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>206083</v>
+        <v>211810</v>
       </c>
       <c r="D9" s="15">
-        <v>139712</v>
+        <v>144087</v>
       </c>
       <c r="E9" s="15">
-        <v>95191</v>
+        <v>96800</v>
       </c>
       <c r="F9" s="15">
-        <v>5433</v>
+        <v>5915</v>
       </c>
       <c r="G9" s="15">
-        <v>39088</v>
+        <v>41372</v>
       </c>
       <c r="H9" s="16">
-        <v>3695</v>
+        <v>4137</v>
       </c>
       <c r="I9" s="17">
-        <v>7.5632303750487893</v>
+        <v>7.8000685341964529</v>
       </c>
       <c r="J9" s="23">
-        <v>66371</v>
+        <v>67723</v>
       </c>
       <c r="K9" s="15">
-        <v>64784</v>
+        <v>66133</v>
       </c>
       <c r="L9" s="15">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="M9" s="15">
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <v>1197</v>
+        <v>1322</v>
       </c>
       <c r="O9" s="17">
-        <v>3.5929566767519119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.6661464347330877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1699,46 +1695,46 @@
         <v>15</v>
       </c>
       <c r="C10" s="26">
-        <v>644808</v>
+        <v>668297</v>
       </c>
       <c r="D10" s="10">
-        <v>449365</v>
+        <v>467388</v>
       </c>
       <c r="E10" s="10">
-        <v>344337</v>
+        <v>352609</v>
       </c>
       <c r="F10" s="10">
-        <v>15823</v>
+        <v>16506</v>
       </c>
       <c r="G10" s="10">
-        <v>89205</v>
+        <v>98273</v>
       </c>
       <c r="H10" s="11">
-        <v>17956</v>
+        <v>17936</v>
       </c>
       <c r="I10" s="12">
-        <v>7.1462990292744362</v>
+        <v>7.4329207007544431</v>
       </c>
       <c r="J10" s="22">
-        <v>195443</v>
+        <v>200909</v>
       </c>
       <c r="K10" s="10">
-        <v>192716</v>
+        <v>197697</v>
       </c>
       <c r="L10" s="10">
-        <v>2690</v>
+        <v>3173</v>
       </c>
       <c r="M10" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10" s="11">
-        <v>5146</v>
+        <v>5465</v>
       </c>
       <c r="O10" s="12">
-        <v>3.1081506596608186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1950770346433255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>13</v>
       </c>
@@ -1746,46 +1742,46 @@
         <v>6</v>
       </c>
       <c r="C11" s="28">
-        <v>166136</v>
+        <v>172825</v>
       </c>
       <c r="D11" s="15">
-        <v>109391</v>
+        <v>115342</v>
       </c>
       <c r="E11" s="15">
-        <v>88602</v>
+        <v>90994</v>
       </c>
       <c r="F11" s="15">
-        <v>6319</v>
+        <v>6321</v>
       </c>
       <c r="G11" s="15">
-        <v>14470</v>
+        <v>18027</v>
       </c>
       <c r="H11" s="16">
-        <v>4683</v>
+        <v>5781</v>
       </c>
       <c r="I11" s="17">
-        <v>6.8023391027386957</v>
+        <v>7.1723944089375404</v>
       </c>
       <c r="J11" s="23">
-        <v>56745</v>
+        <v>57483</v>
       </c>
       <c r="K11" s="15">
-        <v>55463</v>
+        <v>56114</v>
       </c>
       <c r="L11" s="15">
-        <v>1274</v>
+        <v>1359</v>
       </c>
       <c r="M11" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N11" s="16">
-        <v>408</v>
+        <v>736</v>
       </c>
       <c r="O11" s="17">
-        <v>3.5286150815415094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.5745066654727395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1793,46 +1789,46 @@
         <v>7</v>
       </c>
       <c r="C12" s="26">
-        <v>776788</v>
+        <v>808529</v>
       </c>
       <c r="D12" s="10">
-        <v>539440</v>
+        <v>559283</v>
       </c>
       <c r="E12" s="10">
-        <v>415466</v>
+        <v>419677</v>
       </c>
       <c r="F12" s="10">
-        <v>17995</v>
+        <v>19655</v>
       </c>
       <c r="G12" s="10">
-        <v>105979</v>
+        <v>119951</v>
       </c>
       <c r="H12" s="11">
-        <v>16222</v>
+        <v>16505</v>
       </c>
       <c r="I12" s="12">
-        <v>6.74839196518018</v>
+        <v>6.9966278056166882</v>
       </c>
       <c r="J12" s="22">
-        <v>237348</v>
+        <v>249246</v>
       </c>
       <c r="K12" s="10">
-        <v>233428</v>
+        <v>245207</v>
       </c>
       <c r="L12" s="10">
-        <v>3920</v>
+        <v>4039</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>11523</v>
+        <v>11486</v>
       </c>
       <c r="O12" s="12">
-        <v>2.9692224087045549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1180663350016662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1840,46 +1836,46 @@
         <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>1798934</v>
+        <v>1716225</v>
       </c>
       <c r="D13" s="15">
-        <v>1240927</v>
+        <v>1201981</v>
       </c>
       <c r="E13" s="15">
-        <v>921309</v>
+        <v>851201</v>
       </c>
       <c r="F13" s="15">
-        <v>28360</v>
+        <v>28352</v>
       </c>
       <c r="G13" s="15">
-        <v>291258</v>
+        <v>322428</v>
       </c>
       <c r="H13" s="16">
-        <v>43124</v>
+        <v>22562</v>
       </c>
       <c r="I13" s="17">
-        <v>6.9143128064227888</v>
+        <v>6.697309850923439</v>
       </c>
       <c r="J13" s="23">
-        <v>558007</v>
+        <v>514244</v>
       </c>
       <c r="K13" s="15">
-        <v>544308</v>
+        <v>502393</v>
       </c>
       <c r="L13" s="15">
-        <v>13632</v>
+        <v>11769</v>
       </c>
       <c r="M13" s="15">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N13" s="16">
-        <v>9466</v>
+        <v>11191</v>
       </c>
       <c r="O13" s="17">
-        <v>3.1091554508633954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.8653126854569853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1887,46 +1883,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="26">
-        <v>459612</v>
+        <v>472894</v>
       </c>
       <c r="D14" s="10">
-        <v>316025</v>
+        <v>329055</v>
       </c>
       <c r="E14" s="10">
-        <v>211115</v>
+        <v>213540</v>
       </c>
       <c r="F14" s="10">
-        <v>4543</v>
+        <v>4573</v>
       </c>
       <c r="G14" s="10">
-        <v>100367</v>
+        <v>110942</v>
       </c>
       <c r="H14" s="11">
-        <v>13084</v>
+        <v>12333</v>
       </c>
       <c r="I14" s="12">
-        <v>7.7194061510495002</v>
+        <v>8.0376843320420637</v>
       </c>
       <c r="J14" s="22">
-        <v>143587</v>
+        <v>143839</v>
       </c>
       <c r="K14" s="10">
-        <v>139739</v>
+        <v>139954</v>
       </c>
       <c r="L14" s="10">
-        <v>3848</v>
+        <v>3885</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="O14" s="12">
-        <v>3.5073376188932666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.513493114028349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1934,31 +1930,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="27">
-        <v>111578</v>
+        <v>115373</v>
       </c>
       <c r="D15" s="15">
-        <v>80833</v>
+        <v>83608</v>
       </c>
       <c r="E15" s="15">
-        <v>56102</v>
+        <v>57228</v>
       </c>
       <c r="F15" s="15">
-        <v>3045</v>
+        <v>3217</v>
       </c>
       <c r="G15" s="15">
-        <v>21686</v>
+        <v>23163</v>
       </c>
       <c r="H15" s="16">
-        <v>2540</v>
+        <v>2778</v>
       </c>
       <c r="I15" s="17">
-        <v>8.1907047108736855</v>
+        <v>8.4718919187303108</v>
       </c>
       <c r="J15" s="23">
-        <v>30745</v>
+        <v>31765</v>
       </c>
       <c r="K15" s="15">
-        <v>29426</v>
+        <v>30446</v>
       </c>
       <c r="L15" s="15">
         <v>1319</v>
@@ -1967,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="16">
-        <v>1234</v>
+        <v>1019</v>
       </c>
       <c r="O15" s="17">
-        <v>3.1153516056042894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.2187069036272642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -1981,46 +1977,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <v>421766</v>
+        <v>433217</v>
       </c>
       <c r="D16" s="10">
-        <v>296334</v>
+        <v>303146</v>
       </c>
       <c r="E16" s="10">
-        <v>254908</v>
+        <v>258048</v>
       </c>
       <c r="F16" s="10">
-        <v>12928</v>
+        <v>13189</v>
       </c>
       <c r="G16" s="10">
-        <v>28498</v>
+        <v>31909</v>
       </c>
       <c r="H16" s="11">
-        <v>6768</v>
+        <v>6812</v>
       </c>
       <c r="I16" s="12">
-        <v>7.2774093921592273</v>
+        <v>7.4446993851380565</v>
       </c>
       <c r="J16" s="22">
-        <v>125432</v>
+        <v>130071</v>
       </c>
       <c r="K16" s="10">
-        <v>123524</v>
+        <v>128046</v>
       </c>
       <c r="L16" s="10">
-        <v>1908</v>
+        <v>2025</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>4059</v>
+        <v>4639</v>
       </c>
       <c r="O16" s="12">
-        <v>3.0803755724193516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1943007452656222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2028,31 +2024,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="27">
-        <v>210183</v>
+        <v>219171</v>
       </c>
       <c r="D17" s="15">
-        <v>143478</v>
+        <v>150775</v>
       </c>
       <c r="E17" s="15">
-        <v>102007</v>
+        <v>104550</v>
       </c>
       <c r="F17" s="15">
-        <v>7229</v>
+        <v>7927</v>
       </c>
       <c r="G17" s="15">
-        <v>34242</v>
+        <v>38298</v>
       </c>
       <c r="H17" s="16">
-        <v>5502</v>
+        <v>7297</v>
       </c>
       <c r="I17" s="17">
-        <v>6.5372323993909189</v>
+        <v>6.8697027768589312</v>
       </c>
       <c r="J17" s="23">
-        <v>66705</v>
+        <v>68396</v>
       </c>
       <c r="K17" s="15">
-        <v>65011</v>
+        <v>66702</v>
       </c>
       <c r="L17" s="15">
         <v>1694</v>
@@ -2061,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="16">
-        <v>1833</v>
+        <v>1691</v>
       </c>
       <c r="O17" s="17">
-        <v>3.0392540124713983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1163003888313283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -2075,46 +2071,46 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <v>313872</v>
+        <v>323156</v>
       </c>
       <c r="D18" s="10">
-        <v>215322</v>
+        <v>224345</v>
       </c>
       <c r="E18" s="10">
-        <v>157700</v>
+        <v>162209</v>
       </c>
       <c r="F18" s="10">
-        <v>6982</v>
+        <v>7423</v>
       </c>
       <c r="G18" s="10">
-        <v>50640</v>
+        <v>54713</v>
       </c>
       <c r="H18" s="11">
-        <v>8663</v>
+        <v>8846</v>
       </c>
       <c r="I18" s="12">
-        <v>7.4152490570027343</v>
+        <v>7.7259827128360241</v>
       </c>
       <c r="J18" s="22">
-        <v>98550</v>
+        <v>98811</v>
       </c>
       <c r="K18" s="10">
-        <v>96747</v>
+        <v>96821</v>
       </c>
       <c r="L18" s="10">
-        <v>1798</v>
+        <v>1983</v>
       </c>
       <c r="M18" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N18" s="11">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="O18" s="12">
-        <v>3.3938603327463959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.4028486386504726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -2122,31 +2118,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="27">
-        <v>238775</v>
+        <v>246375</v>
       </c>
       <c r="D19" s="15">
-        <v>157423</v>
+        <v>162426</v>
       </c>
       <c r="E19" s="15">
-        <v>118795</v>
+        <v>121656</v>
       </c>
       <c r="F19" s="15">
-        <v>8315</v>
+        <v>8314</v>
       </c>
       <c r="G19" s="15">
-        <v>30313</v>
+        <v>32456</v>
       </c>
       <c r="H19" s="16">
-        <v>4929</v>
+        <v>4999</v>
       </c>
       <c r="I19" s="17">
-        <v>7.3790486261693893</v>
+        <v>7.6135593411012961</v>
       </c>
       <c r="J19" s="23">
-        <v>81352</v>
+        <v>83949</v>
       </c>
       <c r="K19" s="15">
-        <v>78674</v>
+        <v>81271</v>
       </c>
       <c r="L19" s="15">
         <v>2678</v>
@@ -2155,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <v>2561</v>
+        <v>2596</v>
       </c>
       <c r="O19" s="17">
-        <v>3.8132951591326054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.935026985372494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2204,76 +2200,76 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="46">
-        <v>8716654</v>
+        <v>8863270</v>
       </c>
       <c r="D21" s="44">
-        <v>5978551</v>
+        <v>6113484</v>
       </c>
       <c r="E21" s="44">
-        <v>4414100</v>
+        <v>4413935</v>
       </c>
       <c r="F21" s="44">
-        <v>218287</v>
+        <v>228311</v>
       </c>
       <c r="G21" s="44">
-        <v>1346164</v>
+        <v>1471238</v>
       </c>
       <c r="H21" s="44">
-        <v>208569</v>
+        <v>190387</v>
       </c>
       <c r="I21" s="47">
-        <v>7.1886346449362408</v>
+        <v>7.3508786466258123</v>
       </c>
       <c r="J21" s="48">
-        <v>2738103</v>
+        <v>2749786</v>
       </c>
       <c r="K21" s="44">
-        <v>2668219</v>
+        <v>2679147</v>
       </c>
       <c r="L21" s="44">
-        <v>69752</v>
+        <v>70477</v>
       </c>
       <c r="M21" s="44">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="N21" s="44">
-        <v>60776</v>
+        <v>65741</v>
       </c>
       <c r="O21" s="47">
-        <v>3.292306461415794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.3063541493182287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="24"/>
     </row>
   </sheetData>
@@ -2307,43 +2303,43 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="5"/>
-    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="5"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="5"/>
-    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="56.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="5"/>
+    <col min="7" max="8" width="11.44140625" style="5"/>
+    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="64"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2369,7 +2365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2377,31 +2373,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>376084</v>
+        <v>385183</v>
       </c>
       <c r="D3" s="11">
-        <v>340423</v>
+        <v>352656</v>
       </c>
       <c r="E3" s="11">
-        <v>36447</v>
+        <v>39353</v>
       </c>
       <c r="F3" s="14">
-        <v>88000</v>
+        <v>89171</v>
       </c>
       <c r="G3" s="13">
-        <v>209703</v>
+        <v>217328</v>
       </c>
       <c r="H3" s="11">
-        <v>124858</v>
+        <v>127851</v>
       </c>
       <c r="I3" s="11">
-        <v>8297</v>
+        <v>8434</v>
       </c>
       <c r="J3" s="14">
-        <v>67651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2409,31 +2405,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>447890</v>
+        <v>464708</v>
       </c>
       <c r="D4" s="16">
-        <v>459156</v>
+        <v>474324</v>
       </c>
       <c r="E4" s="16">
-        <v>64916</v>
+        <v>68403</v>
       </c>
       <c r="F4" s="18">
-        <v>128965</v>
+        <v>130042</v>
       </c>
       <c r="G4" s="19">
-        <v>191926</v>
+        <v>200355</v>
       </c>
       <c r="H4" s="16">
-        <v>222050</v>
+        <v>224704</v>
       </c>
       <c r="I4" s="16">
-        <v>12177</v>
+        <v>12556</v>
       </c>
       <c r="J4" s="18">
-        <v>102159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>11</v>
       </c>
@@ -2441,31 +2437,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>181014</v>
+        <v>187410</v>
       </c>
       <c r="D5" s="11">
-        <v>82263</v>
+        <v>85398</v>
       </c>
       <c r="E5" s="11">
         <v>150</v>
       </c>
       <c r="F5" s="14">
-        <v>43976</v>
+        <v>44202</v>
       </c>
       <c r="G5" s="13">
-        <v>103287</v>
+        <v>104746</v>
       </c>
       <c r="H5" s="11">
-        <v>31993</v>
+        <v>32314</v>
       </c>
       <c r="I5" s="11">
         <v>30</v>
       </c>
       <c r="J5" s="14">
-        <v>38228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>12</v>
       </c>
@@ -2473,31 +2469,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>65615</v>
+        <v>70320</v>
       </c>
       <c r="D6" s="16">
-        <v>84533</v>
+        <v>88484</v>
       </c>
       <c r="E6" s="16">
-        <v>10869</v>
+        <v>12435</v>
       </c>
       <c r="F6" s="18">
-        <v>24112</v>
+        <v>24265</v>
       </c>
       <c r="G6" s="19">
-        <v>36869</v>
+        <v>37210</v>
       </c>
       <c r="H6" s="16">
-        <v>41436</v>
+        <v>41567</v>
       </c>
       <c r="I6" s="16">
-        <v>1216</v>
+        <v>1246</v>
       </c>
       <c r="J6" s="18">
-        <v>17605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2505,31 +2501,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>23281</v>
+        <v>23818</v>
       </c>
       <c r="D7" s="11">
-        <v>27625</v>
+        <v>28759</v>
       </c>
       <c r="E7" s="11">
-        <v>1138</v>
+        <v>1327</v>
       </c>
       <c r="F7" s="14">
-        <v>8476</v>
+        <v>8495</v>
       </c>
       <c r="G7" s="13">
-        <v>12028</v>
+        <v>12337</v>
       </c>
       <c r="H7" s="11">
-        <v>9243</v>
+        <v>9403</v>
       </c>
       <c r="I7" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J7" s="14">
-        <v>7121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2537,31 +2533,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>58149</v>
+        <v>59778</v>
       </c>
       <c r="D8" s="16">
-        <v>73248</v>
+        <v>75737</v>
       </c>
       <c r="E8" s="16">
-        <v>3184</v>
+        <v>3422</v>
       </c>
       <c r="F8" s="18">
-        <v>15967</v>
+        <v>15979</v>
       </c>
       <c r="G8" s="19">
-        <v>29348</v>
+        <v>30485</v>
       </c>
       <c r="H8" s="16">
-        <v>33319</v>
+        <v>33522</v>
       </c>
       <c r="I8" s="16">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J8" s="18">
-        <v>12797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -2569,31 +2565,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>204465</v>
+        <v>209437</v>
       </c>
       <c r="D9" s="11">
-        <v>186956</v>
+        <v>194138</v>
       </c>
       <c r="E9" s="11">
-        <v>25351</v>
+        <v>28661</v>
       </c>
       <c r="F9" s="14">
-        <v>51625</v>
+        <v>51986</v>
       </c>
       <c r="G9" s="13">
-        <v>102280</v>
+        <v>106282</v>
       </c>
       <c r="H9" s="11">
-        <v>74152</v>
+        <v>75416</v>
       </c>
       <c r="I9" s="11">
-        <v>8788</v>
+        <v>9118</v>
       </c>
       <c r="J9" s="14">
-        <v>36974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -2601,31 +2597,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>39566</v>
+        <v>41295</v>
       </c>
       <c r="D10" s="16">
-        <v>44603</v>
+        <v>48187</v>
       </c>
       <c r="E10" s="16">
-        <v>2803</v>
+        <v>3145</v>
       </c>
       <c r="F10" s="18">
-        <v>26202</v>
+        <v>26610</v>
       </c>
       <c r="G10" s="19">
-        <v>14370</v>
+        <v>14838</v>
       </c>
       <c r="H10" s="16">
-        <v>26393</v>
+        <v>26592</v>
       </c>
       <c r="I10" s="16">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="J10" s="18">
-        <v>16758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2633,31 +2629,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>261319</v>
+        <v>266223</v>
       </c>
       <c r="D11" s="11">
-        <v>213478</v>
+        <v>226813</v>
       </c>
       <c r="E11" s="11">
-        <v>50465</v>
+        <v>52177</v>
       </c>
       <c r="F11" s="14">
-        <v>97675</v>
+        <v>98246</v>
       </c>
       <c r="G11" s="13">
-        <v>88193</v>
+        <v>98480</v>
       </c>
       <c r="H11" s="11">
-        <v>101715</v>
+        <v>102628</v>
       </c>
       <c r="I11" s="11">
-        <v>30618</v>
+        <v>30851</v>
       </c>
       <c r="J11" s="14">
-        <v>81296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2665,31 +2661,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>438117</v>
+        <v>478591</v>
       </c>
       <c r="D12" s="16">
-        <v>666405</v>
+        <v>644240</v>
       </c>
       <c r="E12" s="16">
-        <v>22873</v>
+        <v>27263</v>
       </c>
       <c r="F12" s="18">
-        <v>190871</v>
+        <v>154818</v>
       </c>
       <c r="G12" s="19">
-        <v>149849</v>
+        <v>185363</v>
       </c>
       <c r="H12" s="16">
-        <v>310242</v>
+        <v>271654</v>
       </c>
       <c r="I12" s="16">
-        <v>14774</v>
+        <v>16949</v>
       </c>
       <c r="J12" s="18">
-        <v>150784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2697,31 +2693,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>111016</v>
+        <v>112869</v>
       </c>
       <c r="D13" s="11">
-        <v>161210</v>
+        <v>171980</v>
       </c>
       <c r="E13" s="11">
-        <v>7346</v>
+        <v>7686</v>
       </c>
       <c r="F13" s="14">
-        <v>36453</v>
+        <v>36520</v>
       </c>
       <c r="G13" s="13">
-        <v>52619</v>
+        <v>52750</v>
       </c>
       <c r="H13" s="11">
-        <v>58586</v>
+        <v>58703</v>
       </c>
       <c r="I13" s="11">
         <v>97</v>
       </c>
       <c r="J13" s="14">
-        <v>32285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2729,31 +2725,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>44684</v>
+        <v>45719</v>
       </c>
       <c r="D14" s="16">
-        <v>29514</v>
+        <v>30636</v>
       </c>
       <c r="E14" s="16">
-        <v>2454</v>
+        <v>2836</v>
       </c>
       <c r="F14" s="18">
-        <v>10891</v>
+        <v>11164</v>
       </c>
       <c r="G14" s="19">
-        <v>19835</v>
+        <v>20644</v>
       </c>
       <c r="H14" s="16">
-        <v>7504</v>
+        <v>7713</v>
       </c>
       <c r="I14" s="16">
         <v>11</v>
       </c>
       <c r="J14" s="18">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2761,31 +2757,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>119726</v>
+        <v>121524</v>
       </c>
       <c r="D15" s="11">
-        <v>114337</v>
+        <v>116842</v>
       </c>
       <c r="E15" s="11">
-        <v>15919</v>
+        <v>17551</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>48387</v>
+        <v>51882</v>
       </c>
       <c r="H15" s="11">
-        <v>53129</v>
+        <v>53667</v>
       </c>
       <c r="I15" s="11">
-        <v>8078</v>
+        <v>8306</v>
       </c>
       <c r="J15" s="14">
-        <v>20524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2793,31 +2789,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>56471</v>
+        <v>59469</v>
       </c>
       <c r="D16" s="16">
-        <v>67939</v>
+        <v>71670</v>
       </c>
       <c r="E16" s="16">
-        <v>7250</v>
+        <v>7681</v>
       </c>
       <c r="F16" s="18">
-        <v>32387</v>
+        <v>32579</v>
       </c>
       <c r="G16" s="19">
-        <v>26263</v>
+        <v>26770</v>
       </c>
       <c r="H16" s="16">
-        <v>31501</v>
+        <v>32238</v>
       </c>
       <c r="I16" s="16">
-        <v>3549</v>
+        <v>3561</v>
       </c>
       <c r="J16" s="18">
-        <v>20288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2825,32 +2821,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>94051</v>
+        <v>97726</v>
       </c>
       <c r="D17" s="11">
-        <v>91391</v>
+        <v>95635</v>
       </c>
       <c r="E17" s="11">
-        <v>10595</v>
+        <v>10915</v>
       </c>
       <c r="F17" s="14">
-        <v>54816</v>
+        <v>55985</v>
       </c>
       <c r="G17" s="13">
-        <v>41668</v>
+        <v>41698</v>
       </c>
       <c r="H17" s="11">
-        <v>36883</v>
+        <v>37000</v>
       </c>
       <c r="I17" s="11">
-        <v>8869</v>
+        <v>8877</v>
       </c>
       <c r="J17" s="14">
-        <v>42329</v>
+        <v>42455</v>
       </c>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2858,31 +2854,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>76278</v>
+        <v>79691</v>
       </c>
       <c r="D18" s="16">
-        <v>66923</v>
+        <v>67736</v>
       </c>
       <c r="E18" s="16">
-        <v>9754</v>
+        <v>10526</v>
       </c>
       <c r="F18" s="18">
-        <v>25127</v>
+        <v>25435</v>
       </c>
       <c r="G18" s="16">
-        <v>42986</v>
+        <v>44753</v>
       </c>
       <c r="H18" s="16">
-        <v>32534</v>
+        <v>33175</v>
       </c>
       <c r="I18" s="16">
-        <v>3655</v>
+        <v>3794</v>
       </c>
       <c r="J18" s="18">
-        <v>15757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -2912,66 +2908,66 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="49">
-        <v>2597726</v>
+        <v>2703761</v>
       </c>
       <c r="D20" s="50">
-        <v>2710004</v>
+        <v>2773235</v>
       </c>
       <c r="E20" s="50">
-        <v>271514</v>
+        <v>293531</v>
       </c>
       <c r="F20" s="51">
-        <v>869538</v>
+        <v>839492</v>
       </c>
       <c r="G20" s="49">
-        <v>1169611</v>
+        <v>1245921</v>
       </c>
       <c r="H20" s="50">
-        <v>1195538</v>
+        <v>1168147</v>
       </c>
       <c r="I20" s="50">
-        <v>101348</v>
+        <v>105055</v>
       </c>
       <c r="J20" s="51">
-        <v>672156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>653667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
     </row>
   </sheetData>
@@ -2992,19 +2988,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
@@ -3018,1077 +3014,1103 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>44192</v>
       </c>
       <c r="B2" s="33">
-        <v>23569</v>
+        <v>21257</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
       </c>
       <c r="D2" s="33">
-        <v>23569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>44193</v>
       </c>
       <c r="B3" s="33">
-        <v>18740</v>
+        <v>18754</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
       </c>
       <c r="D3" s="33">
-        <v>18740</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>44194</v>
       </c>
       <c r="B4" s="33">
-        <v>42653</v>
+        <v>43668</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>42653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>44195</v>
       </c>
       <c r="B5" s="33">
-        <v>58002</v>
+        <v>59620</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>58002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>44196</v>
       </c>
       <c r="B6" s="33">
-        <v>38617</v>
+        <v>42117</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
       </c>
       <c r="D6" s="33">
-        <v>38617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>44197</v>
       </c>
       <c r="B7" s="33">
-        <v>24750</v>
+        <v>19151</v>
       </c>
       <c r="C7" s="33">
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>44198</v>
       </c>
       <c r="B8" s="33">
-        <v>52184</v>
+        <v>52143</v>
       </c>
       <c r="C8" s="33">
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>52184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>44199</v>
       </c>
       <c r="B9" s="33">
-        <v>24987</v>
+        <v>24072</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>24987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>44200</v>
       </c>
       <c r="B10" s="33">
-        <v>48646</v>
+        <v>48156</v>
       </c>
       <c r="C10" s="33">
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>48646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>44201</v>
       </c>
       <c r="B11" s="33">
-        <v>52458</v>
+        <v>53763</v>
       </c>
       <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>52458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>44202</v>
       </c>
       <c r="B12" s="33">
-        <v>59172</v>
+        <v>62456</v>
       </c>
       <c r="C12" s="33">
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>59172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>44203</v>
       </c>
       <c r="B13" s="33">
-        <v>58466</v>
+        <v>55898</v>
       </c>
       <c r="C13" s="33">
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>58466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>44204</v>
       </c>
       <c r="B14" s="33">
-        <v>60450</v>
+        <v>62792</v>
       </c>
       <c r="C14" s="33">
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>60450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>44205</v>
       </c>
       <c r="B15" s="33">
-        <v>57204</v>
+        <v>60961</v>
       </c>
       <c r="C15" s="33">
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <v>57204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>44206</v>
       </c>
       <c r="B16" s="33">
-        <v>33282</v>
+        <v>34099</v>
       </c>
       <c r="C16" s="33">
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <v>33282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>44207</v>
       </c>
       <c r="B17" s="33">
-        <v>65670</v>
+        <v>65142</v>
       </c>
       <c r="C17" s="33">
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <v>65670</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>44208</v>
       </c>
       <c r="B18" s="33">
-        <v>82092</v>
+        <v>82433</v>
       </c>
       <c r="C18" s="33">
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>82092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>44209</v>
       </c>
       <c r="B19" s="33">
-        <v>99087</v>
+        <v>109070</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>99087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109070</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>44210</v>
       </c>
       <c r="B20" s="33">
-        <v>100076</v>
+        <v>82188</v>
       </c>
       <c r="C20" s="33">
         <v>114</v>
       </c>
       <c r="D20" s="33">
-        <v>100190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>44211</v>
       </c>
       <c r="B21" s="33">
-        <v>92403</v>
+        <v>88529</v>
       </c>
       <c r="C21" s="33">
-        <v>429</v>
+        <v>596</v>
       </c>
       <c r="D21" s="33">
-        <v>92832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>44212</v>
       </c>
       <c r="B22" s="33">
-        <v>56711</v>
+        <v>56243</v>
       </c>
       <c r="C22" s="33">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="D22" s="33">
-        <v>57108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>44213</v>
       </c>
       <c r="B23" s="33">
-        <v>30899</v>
+        <v>29502</v>
       </c>
       <c r="C23" s="33">
-        <v>13612</v>
+        <v>15732</v>
       </c>
       <c r="D23" s="33">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>44214</v>
       </c>
       <c r="B24" s="33">
-        <v>57992</v>
+        <v>64515</v>
       </c>
       <c r="C24" s="33">
-        <v>16372</v>
+        <v>15005</v>
       </c>
       <c r="D24" s="33">
-        <v>74364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>44215</v>
       </c>
       <c r="B25" s="33">
-        <v>68176</v>
+        <v>78061</v>
       </c>
       <c r="C25" s="33">
-        <v>27230</v>
+        <v>30582</v>
       </c>
       <c r="D25" s="33">
-        <v>95406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>44216</v>
       </c>
       <c r="B26" s="33">
-        <v>78286</v>
+        <v>77746</v>
       </c>
       <c r="C26" s="33">
-        <v>50656</v>
+        <v>48483</v>
       </c>
       <c r="D26" s="33">
-        <v>128942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>44217</v>
       </c>
       <c r="B27" s="33">
-        <v>60705</v>
+        <v>62783</v>
       </c>
       <c r="C27" s="33">
-        <v>35435</v>
+        <v>37738</v>
       </c>
       <c r="D27" s="33">
-        <v>96140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>44218</v>
       </c>
       <c r="B28" s="33">
-        <v>84248</v>
+        <v>66697</v>
       </c>
       <c r="C28" s="33">
-        <v>31288</v>
+        <v>33293</v>
       </c>
       <c r="D28" s="33">
-        <v>115536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99990</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>44219</v>
       </c>
       <c r="B29" s="33">
-        <v>48964</v>
+        <v>40133</v>
       </c>
       <c r="C29" s="33">
-        <v>43848</v>
+        <v>44033</v>
       </c>
       <c r="D29" s="33">
-        <v>92812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>44220</v>
       </c>
       <c r="B30" s="33">
-        <v>38212</v>
+        <v>25607</v>
       </c>
       <c r="C30" s="33">
-        <v>28089</v>
+        <v>23736</v>
       </c>
       <c r="D30" s="33">
-        <v>66301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>44221</v>
       </c>
       <c r="B31" s="33">
-        <v>58193</v>
+        <v>58105</v>
       </c>
       <c r="C31" s="33">
-        <v>39740</v>
+        <v>37971</v>
       </c>
       <c r="D31" s="33">
-        <v>97933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>44222</v>
       </c>
       <c r="B32" s="33">
-        <v>53110</v>
+        <v>50430</v>
       </c>
       <c r="C32" s="33">
-        <v>49609</v>
+        <v>48466</v>
       </c>
       <c r="D32" s="33">
-        <v>102719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>44223</v>
       </c>
       <c r="B33" s="33">
-        <v>54055</v>
+        <v>51791</v>
       </c>
       <c r="C33" s="33">
-        <v>59285</v>
+        <v>58695</v>
       </c>
       <c r="D33" s="33">
-        <v>113340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>44224</v>
       </c>
       <c r="B34" s="33">
-        <v>51579</v>
+        <v>44823</v>
       </c>
       <c r="C34" s="33">
-        <v>49014</v>
+        <v>46212</v>
       </c>
       <c r="D34" s="33">
-        <v>100593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>44225</v>
       </c>
       <c r="B35" s="33">
-        <v>55984</v>
+        <v>50989</v>
       </c>
       <c r="C35" s="33">
-        <v>53754</v>
+        <v>55001</v>
       </c>
       <c r="D35" s="33">
-        <v>109738</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>44226</v>
       </c>
       <c r="B36" s="33">
-        <v>39568</v>
+        <v>34702</v>
       </c>
       <c r="C36" s="33">
-        <v>48468</v>
+        <v>48721</v>
       </c>
       <c r="D36" s="33">
-        <v>88036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>44227</v>
       </c>
       <c r="B37" s="33">
-        <v>31328</v>
+        <v>26030</v>
       </c>
       <c r="C37" s="33">
-        <v>31380</v>
+        <v>28995</v>
       </c>
       <c r="D37" s="33">
-        <v>62708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>44228</v>
       </c>
       <c r="B38" s="33">
-        <v>50094</v>
+        <v>56983</v>
       </c>
       <c r="C38" s="33">
-        <v>65861</v>
+        <v>60600</v>
       </c>
       <c r="D38" s="33">
-        <v>115955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>44229</v>
       </c>
       <c r="B39" s="33">
-        <v>57930</v>
+        <v>61006</v>
       </c>
       <c r="C39" s="33">
-        <v>69747</v>
+        <v>64600</v>
       </c>
       <c r="D39" s="33">
-        <v>127677</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>44230</v>
       </c>
       <c r="B40" s="33">
-        <v>57895</v>
+        <v>62262</v>
       </c>
       <c r="C40" s="33">
-        <v>84656</v>
+        <v>87359</v>
       </c>
       <c r="D40" s="33">
-        <v>142551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>44231</v>
       </c>
       <c r="B41" s="33">
-        <v>63040</v>
+        <v>57755</v>
       </c>
       <c r="C41" s="33">
-        <v>72578</v>
+        <v>66849</v>
       </c>
       <c r="D41" s="33">
-        <v>135618</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>44232</v>
       </c>
       <c r="B42" s="33">
-        <v>59566</v>
+        <v>62099</v>
       </c>
       <c r="C42" s="33">
-        <v>73640</v>
+        <v>70449</v>
       </c>
       <c r="D42" s="33">
-        <v>133206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>44233</v>
       </c>
       <c r="B43" s="33">
-        <v>48599</v>
+        <v>43460</v>
       </c>
       <c r="C43" s="33">
-        <v>55157</v>
+        <v>48589</v>
       </c>
       <c r="D43" s="33">
-        <v>103756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>44234</v>
       </c>
       <c r="B44" s="33">
-        <v>32877</v>
+        <v>26981</v>
       </c>
       <c r="C44" s="33">
-        <v>26518</v>
+        <v>23601</v>
       </c>
       <c r="D44" s="33">
-        <v>59395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44235</v>
       </c>
       <c r="B45" s="33">
-        <v>54690</v>
+        <v>52996</v>
       </c>
       <c r="C45" s="33">
-        <v>51616</v>
+        <v>53951</v>
       </c>
       <c r="D45" s="33">
-        <v>106306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>44236</v>
       </c>
       <c r="B46" s="33">
-        <v>59647</v>
+        <v>58407</v>
       </c>
       <c r="C46" s="33">
-        <v>65074</v>
+        <v>68473</v>
       </c>
       <c r="D46" s="33">
-        <v>124721</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>44237</v>
       </c>
       <c r="B47" s="33">
-        <v>75278</v>
+        <v>71790</v>
       </c>
       <c r="C47" s="33">
-        <v>74647</v>
+        <v>69902</v>
       </c>
       <c r="D47" s="33">
-        <v>149925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>44238</v>
       </c>
       <c r="B48" s="33">
-        <v>71452</v>
+        <v>72616</v>
       </c>
       <c r="C48" s="33">
-        <v>72423</v>
+        <v>67041</v>
       </c>
       <c r="D48" s="33">
-        <v>143875</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>44239</v>
       </c>
       <c r="B49" s="33">
-        <v>79986</v>
+        <v>78677</v>
       </c>
       <c r="C49" s="33">
-        <v>78352</v>
+        <v>74414</v>
       </c>
       <c r="D49" s="33">
-        <v>158338</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>44240</v>
       </c>
       <c r="B50" s="33">
-        <v>63262</v>
+        <v>61120</v>
       </c>
       <c r="C50" s="33">
-        <v>46646</v>
+        <v>45030</v>
       </c>
       <c r="D50" s="33">
-        <v>109908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>44241</v>
       </c>
       <c r="B51" s="33">
-        <v>39802</v>
+        <v>39585</v>
       </c>
       <c r="C51" s="33">
-        <v>26985</v>
+        <v>25346</v>
       </c>
       <c r="D51" s="33">
-        <v>66787</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64931</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>44242</v>
       </c>
       <c r="B52" s="33">
-        <v>70810</v>
+        <v>69536</v>
       </c>
       <c r="C52" s="33">
-        <v>56021</v>
+        <v>55230</v>
       </c>
       <c r="D52" s="33">
-        <v>126831</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>44243</v>
       </c>
       <c r="B53" s="33">
-        <v>81507</v>
+        <v>80410</v>
       </c>
       <c r="C53" s="33">
-        <v>54758</v>
+        <v>53166</v>
       </c>
       <c r="D53" s="33">
-        <v>136265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>44244</v>
       </c>
       <c r="B54" s="33">
-        <v>94518</v>
+        <v>92648</v>
       </c>
       <c r="C54" s="33">
-        <v>54638</v>
+        <v>54484</v>
       </c>
       <c r="D54" s="33">
-        <v>149156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>44245</v>
       </c>
       <c r="B55" s="33">
-        <v>93293</v>
+        <v>91075</v>
       </c>
       <c r="C55" s="33">
-        <v>52036</v>
+        <v>50230</v>
       </c>
       <c r="D55" s="33">
-        <v>145329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>44246</v>
       </c>
       <c r="B56" s="33">
-        <v>96641</v>
+        <v>96988</v>
       </c>
       <c r="C56" s="33">
-        <v>53486</v>
+        <v>52627</v>
       </c>
       <c r="D56" s="33">
-        <v>150127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>44247</v>
       </c>
       <c r="B57" s="33">
-        <v>74921</v>
+        <v>75482</v>
       </c>
       <c r="C57" s="33">
-        <v>37636</v>
+        <v>37361</v>
       </c>
       <c r="D57" s="33">
-        <v>112557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>112843</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>44248</v>
       </c>
       <c r="B58" s="33">
-        <v>56642</v>
+        <v>56763</v>
       </c>
       <c r="C58" s="33">
-        <v>28942</v>
+        <v>28408</v>
       </c>
       <c r="D58" s="33">
-        <v>85584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>44249</v>
       </c>
       <c r="B59" s="33">
-        <v>98946</v>
+        <v>98241</v>
       </c>
       <c r="C59" s="33">
-        <v>52956</v>
+        <v>59268</v>
       </c>
       <c r="D59" s="33">
-        <v>151902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>44250</v>
       </c>
       <c r="B60" s="33">
-        <v>103889</v>
+        <v>104143</v>
       </c>
       <c r="C60" s="33">
-        <v>55638</v>
+        <v>56814</v>
       </c>
       <c r="D60" s="33">
-        <v>159527</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>44251</v>
       </c>
       <c r="B61" s="33">
-        <v>116534</v>
+        <v>116126</v>
       </c>
       <c r="C61" s="33">
-        <v>57933</v>
+        <v>57193</v>
       </c>
       <c r="D61" s="33">
-        <v>174467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>44252</v>
       </c>
       <c r="B62" s="33">
-        <v>127051</v>
+        <v>127397</v>
       </c>
       <c r="C62" s="33">
-        <v>52290</v>
+        <v>54326</v>
       </c>
       <c r="D62" s="33">
-        <v>179341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>44253</v>
       </c>
       <c r="B63" s="33">
-        <v>135873</v>
+        <v>139294</v>
       </c>
       <c r="C63" s="33">
-        <v>58470</v>
+        <v>60258</v>
       </c>
       <c r="D63" s="33">
-        <v>194343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>44254</v>
       </c>
       <c r="B64" s="33">
-        <v>107587</v>
+        <v>108140</v>
       </c>
       <c r="C64" s="33">
-        <v>38766</v>
+        <v>38213</v>
       </c>
       <c r="D64" s="33">
         <v>146353</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>44255</v>
       </c>
       <c r="B65" s="33">
-        <v>85656</v>
+        <v>84441</v>
       </c>
       <c r="C65" s="33">
-        <v>27932</v>
+        <v>23908</v>
       </c>
       <c r="D65" s="33">
-        <v>113588</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>44256</v>
       </c>
       <c r="B66" s="33">
-        <v>140525</v>
+        <v>141384</v>
       </c>
       <c r="C66" s="33">
-        <v>50255</v>
+        <v>48265</v>
       </c>
       <c r="D66" s="33">
-        <v>190780</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>44257</v>
       </c>
       <c r="B67" s="33">
-        <v>158566</v>
+        <v>158777</v>
       </c>
       <c r="C67" s="33">
-        <v>55650</v>
+        <v>52355</v>
       </c>
       <c r="D67" s="33">
-        <v>214216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>44258</v>
       </c>
       <c r="B68" s="33">
-        <v>172002</v>
+        <v>168109</v>
       </c>
       <c r="C68" s="33">
-        <v>67147</v>
+        <v>65884</v>
       </c>
       <c r="D68" s="33">
-        <v>239149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44259</v>
       </c>
       <c r="B69" s="33">
-        <v>174730</v>
+        <v>172969</v>
       </c>
       <c r="C69" s="33">
-        <v>61724</v>
+        <v>60111</v>
       </c>
       <c r="D69" s="33">
-        <v>236454</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>44260</v>
       </c>
       <c r="B70" s="33">
-        <v>182743</v>
+        <v>188187</v>
       </c>
       <c r="C70" s="33">
-        <v>63061</v>
+        <v>64879</v>
       </c>
       <c r="D70" s="33">
-        <v>245804</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253066</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>44261</v>
       </c>
       <c r="B71" s="33">
-        <v>144413</v>
+        <v>148985</v>
       </c>
       <c r="C71" s="33">
-        <v>47130</v>
+        <v>48053</v>
       </c>
       <c r="D71" s="33">
-        <v>191543</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197038</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>44262</v>
       </c>
       <c r="B72" s="33">
-        <v>112917</v>
+        <v>114893</v>
       </c>
       <c r="C72" s="33">
-        <v>34266.5</v>
+        <v>34600.5</v>
       </c>
       <c r="D72" s="33">
-        <v>147183.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149493.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>44263</v>
       </c>
       <c r="B73" s="54">
-        <v>175671</v>
+        <v>178973</v>
       </c>
       <c r="C73" s="54">
-        <v>53086.5</v>
+        <v>51629.5</v>
       </c>
       <c r="D73" s="54">
-        <v>228757.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230602.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>44264</v>
       </c>
       <c r="B74" s="54">
-        <v>188569</v>
+        <v>185607</v>
       </c>
       <c r="C74" s="54">
-        <v>54832</v>
+        <v>53571</v>
       </c>
       <c r="D74" s="54">
-        <v>243401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>44265</v>
       </c>
       <c r="B75" s="54">
-        <v>201342</v>
+        <v>204221</v>
       </c>
       <c r="C75" s="54">
-        <v>66053</v>
+        <v>63544</v>
       </c>
       <c r="D75" s="54">
-        <v>267395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>44266</v>
       </c>
       <c r="B76" s="54">
-        <v>208569</v>
+        <v>210145</v>
       </c>
       <c r="C76" s="54">
-        <v>60776</v>
+        <v>59587</v>
       </c>
       <c r="D76" s="54">
-        <v>269345</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+        <v>269732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
+        <v>44267</v>
+      </c>
+      <c r="B77" s="54">
+        <v>190387</v>
+      </c>
+      <c r="C77" s="54">
+        <v>65741</v>
+      </c>
+      <c r="D77" s="54">
+        <v>256128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+    </row>
+    <row r="79" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="33">
-        <f>SUM(B2:B77)</f>
-        <v>5978551</v>
-      </c>
-      <c r="C78" s="33">
-        <f t="shared" ref="C78" si="0">SUM(C2:C77)</f>
-        <v>2738103</v>
-      </c>
-      <c r="D78" s="33">
-        <f>SUM(D2:D77)</f>
-        <v>8716654</v>
+      <c r="B81" s="33">
+        <f>SUM(B2:B80)</f>
+        <v>6113484</v>
+      </c>
+      <c r="C81" s="33">
+        <f>SUM(C2:C80)</f>
+        <v>2749786</v>
+      </c>
+      <c r="D81" s="33">
+        <f>SUM(D2:D80)</f>
+        <v>8863270</v>
       </c>
     </row>
   </sheetData>

--- a/data/impfzahlen.xlsx
+++ b/data/impfzahlen.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5388BB2-4E2A-4AEA-944C-7DE5A6DFD8D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD65E14-178D-4D25-B75B-65DF58FCACC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="28512" windowHeight="12600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Gesamt_bis_einschl_15.03.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Indik_bis_einschl_15.03." sheetId="11" r:id="rId3"/>
+    <sheet name="Gesamt_bis_einschl_30.03.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Indik_bis_einschl_30.03.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_15.03.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_15.03.!$G$2:$J$18</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_15.03.21!$D$3:$H$19</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_15.03.!$C$2:$F$18</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Gesamt_bis_einschl_30.03.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Indik_bis_einschl_30.03.21!$G$2:$J$18</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Gesamt_bis_einschl_30.03.21!$D$3:$H$19</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Indik_bis_einschl_30.03.21!$C$2:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Bayern</t>
   </si>
@@ -220,25 +220,34 @@
     <t>Bund **</t>
   </si>
   <si>
+    <t>Gesamt (ohne Bund)</t>
+  </si>
+  <si>
+    <t>Bund*</t>
+  </si>
+  <si>
+    <t>*Die dem Bund zugeordneten Impfdaten liegen bisher nicht nach Impftag vor.</t>
+  </si>
+  <si>
+    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
+  </si>
+  <si>
+    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden unregelmäßig aktualisiert (letzte Aktualisierung: 16.03.2021).</t>
+  </si>
+  <si>
+    <t>Datenstand: 31.03.2021, 8:00 Uhr</t>
+  </si>
+  <si>
+    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 30.03.21 (Gesamt_bis_einschl_30.03.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 30.03.21 durchgeführt und bis zum 31.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Indikation bis einschließlich 30.03.21 (Indik_bis_einschl_30.03.21)</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Datenstand: 16.03.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Durchgeführte Impfungen bundesweit und nach Bundesland bis einschließlich 15.03.21 (Gesamt_bis_einschl_15.03.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 15.03.21 durchgeführt und bis zum 16.03.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Indikation bis einschließlich 15.03.21 (Indik_bis_einschl_15.03.21)</t>
-  </si>
-  <si>
-    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden wöchentlich jeweils montags aktualisiert.</t>
-  </si>
-  <si>
-    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Diese gehen in die Berechnung der Impfquote für Gesamtdeutschland mit ein und umfassen nur Angehörige des Bundes, die nach §§ 2, 3 und 4 Coronavirus-Impfverordnung geimpft wurden. Die Zahlen werden wöchentlich jeweils montags aktualisiert.</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -630,7 +639,6 @@
     <xf numFmtId="3" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -669,9 +677,6 @@
     <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -698,6 +703,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -807,7 +825,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -828,7 +846,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001" fillFormulas="1" connectionId="1" xr16:uid="{8C6643A4-82D3-4F11-ADE7-BA4132573BCB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Bundesländer001_1" fillFormulas="1" connectionId="2" xr16:uid="{85D177FD-4909-4AAF-B663-F45CEC25E8F5}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
     <queryTableFields count="4">
       <queryTableField id="5" name="Fälle in den letzten 7 Tagen"/>
@@ -1171,120 +1189,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="5"/>
+    <col min="1" max="1" width="148.42578125" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>61</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="9" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="13" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1296,88 +1314,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="5"/>
-    <col min="7" max="7" width="13" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="5"/>
+    <col min="7" max="7" width="13" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" style="32"/>
-    <col min="13" max="13" width="12.6640625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="31"/>
+    <col min="13" max="13" width="12.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="61"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="68" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="62" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="71"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1390,8 +1408,8 @@
       <c r="G3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1404,795 +1422,795 @@
       <c r="M3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" s="74"/>
+      <c r="O3" s="63"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
-        <v>1276282</v>
+      <c r="C4" s="25">
+        <v>1776248</v>
       </c>
       <c r="D4" s="10">
-        <v>883965</v>
+        <v>1243458</v>
       </c>
       <c r="E4" s="10">
-        <v>588993</v>
+        <v>793097</v>
       </c>
       <c r="F4" s="10">
-        <v>38096</v>
+        <v>56149</v>
       </c>
       <c r="G4" s="10">
-        <v>256876</v>
+        <v>394212</v>
       </c>
       <c r="H4" s="10">
-        <v>24853</v>
-      </c>
-      <c r="I4" s="25">
-        <v>7.9633659850271989</v>
+        <v>27716</v>
+      </c>
+      <c r="I4" s="24">
+        <v>11.201926706385377</v>
       </c>
       <c r="J4" s="22">
-        <v>392317</v>
+        <v>532790</v>
       </c>
       <c r="K4" s="10">
-        <v>377496</v>
+        <v>503039</v>
       </c>
       <c r="L4" s="10">
-        <v>14817</v>
+        <v>29630</v>
       </c>
       <c r="M4" s="10">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="N4" s="11">
-        <v>6544</v>
-      </c>
-      <c r="O4" s="42">
-        <v>3.5342619370087225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>10050</v>
+      </c>
+      <c r="O4" s="41">
+        <v>4.7997395407766614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27">
-        <v>1663320</v>
+      <c r="C5" s="26">
+        <v>2225681</v>
       </c>
       <c r="D5" s="15">
-        <v>1147115</v>
+        <v>1528049</v>
       </c>
       <c r="E5" s="15">
-        <v>811751</v>
+        <v>1024909</v>
       </c>
       <c r="F5" s="15">
-        <v>49691</v>
+        <v>81904</v>
       </c>
       <c r="G5" s="15">
-        <v>285673</v>
+        <v>421236</v>
       </c>
       <c r="H5" s="16">
-        <v>30424</v>
+        <v>30511</v>
       </c>
       <c r="I5" s="17">
-        <v>8.7400989444588486</v>
+        <v>11.642511388990119</v>
       </c>
       <c r="J5" s="23">
-        <v>516205</v>
+        <v>697632</v>
       </c>
       <c r="K5" s="15">
-        <v>504199</v>
+        <v>672659</v>
       </c>
       <c r="L5" s="15">
-        <v>11976</v>
+        <v>24899</v>
       </c>
       <c r="M5" s="15">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N5" s="16">
-        <v>11062</v>
+        <v>14347</v>
       </c>
       <c r="O5" s="17">
-        <v>3.9330692874074353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.3153979390215591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>447470</v>
+      <c r="C6" s="25">
+        <v>635546</v>
       </c>
       <c r="D6" s="10">
-        <v>303637</v>
+        <v>433456</v>
       </c>
       <c r="E6" s="10">
-        <v>224920</v>
+        <v>278996</v>
       </c>
       <c r="F6" s="10">
-        <v>18948</v>
+        <v>42042</v>
       </c>
       <c r="G6" s="10">
-        <v>59769</v>
+        <v>112418</v>
       </c>
       <c r="H6" s="11">
-        <v>8598</v>
+        <v>6350</v>
       </c>
       <c r="I6" s="12">
-        <v>8.2746353649593356</v>
+        <v>11.812428481225325</v>
       </c>
       <c r="J6" s="22">
-        <v>143833</v>
+        <v>202090</v>
       </c>
       <c r="K6" s="10">
-        <v>139683</v>
+        <v>195359</v>
       </c>
       <c r="L6" s="10">
-        <v>4150</v>
+        <v>6731</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1560</v>
+        <v>5190</v>
       </c>
       <c r="O6" s="12">
-        <v>3.9196989446220201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.5073033289903153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27">
-        <v>268143</v>
+      <c r="C7" s="26">
+        <v>416657</v>
       </c>
       <c r="D7" s="15">
-        <v>187196</v>
+        <v>319404</v>
       </c>
       <c r="E7" s="15">
-        <v>115672</v>
+        <v>202274</v>
       </c>
       <c r="F7" s="15">
-        <v>9527</v>
+        <v>20677</v>
       </c>
       <c r="G7" s="15">
-        <v>61997</v>
+        <v>96453</v>
       </c>
       <c r="H7" s="16">
-        <v>5845</v>
+        <v>12948</v>
       </c>
       <c r="I7" s="17">
-        <v>7.4228367341516872</v>
+        <v>12.66524789116747</v>
       </c>
       <c r="J7" s="23">
-        <v>80947</v>
+        <v>97253</v>
       </c>
       <c r="K7" s="15">
-        <v>76875</v>
+        <v>93129</v>
       </c>
       <c r="L7" s="15">
-        <v>4071</v>
+        <v>4116</v>
       </c>
       <c r="M7" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="16">
-        <v>427</v>
+        <v>1839</v>
       </c>
       <c r="O7" s="17">
-        <v>3.2097713899836351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3.8563491789699249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
-        <v>87671</v>
+      <c r="C8" s="25">
+        <v>124560</v>
       </c>
       <c r="D8" s="10">
-        <v>61555</v>
+        <v>89398</v>
       </c>
       <c r="E8" s="10">
-        <v>38555</v>
+        <v>57500</v>
       </c>
       <c r="F8" s="10">
-        <v>3037</v>
+        <v>5613</v>
       </c>
       <c r="G8" s="10">
-        <v>19963</v>
+        <v>26285</v>
       </c>
       <c r="H8" s="11">
-        <v>1416</v>
+        <v>2512</v>
       </c>
       <c r="I8" s="12">
-        <v>9.0362330116470595</v>
+        <v>13.123566871500673</v>
       </c>
       <c r="J8" s="22">
-        <v>26116</v>
+        <v>35162</v>
       </c>
       <c r="K8" s="10">
-        <v>24806</v>
+        <v>33141</v>
       </c>
       <c r="L8" s="10">
-        <v>1310</v>
+        <v>2018</v>
       </c>
       <c r="M8" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="11">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="O8" s="12">
-        <v>3.8338114098314455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.1617581862648674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27">
-        <v>227150</v>
+      <c r="C9" s="26">
+        <v>298479</v>
       </c>
       <c r="D9" s="15">
-        <v>155380</v>
+        <v>209069</v>
       </c>
       <c r="E9" s="15">
-        <v>101356</v>
+        <v>143524</v>
       </c>
       <c r="F9" s="15">
-        <v>6985</v>
+        <v>7879</v>
       </c>
       <c r="G9" s="15">
-        <v>47039</v>
+        <v>57666</v>
       </c>
       <c r="H9" s="16">
-        <v>3403</v>
+        <v>4606</v>
       </c>
       <c r="I9" s="17">
-        <v>8.4114087241974964</v>
+        <v>11.317832478821256</v>
       </c>
       <c r="J9" s="23">
-        <v>71770</v>
+        <v>89410</v>
       </c>
       <c r="K9" s="15">
-        <v>70176</v>
+        <v>87756</v>
       </c>
       <c r="L9" s="15">
-        <v>1593</v>
+        <v>1611</v>
       </c>
       <c r="M9" s="15">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N9" s="16">
-        <v>1464</v>
+        <v>1419</v>
       </c>
       <c r="O9" s="17">
-        <v>3.8852284987492243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.8401599564326059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26">
-        <v>728335</v>
+      <c r="C10" s="25">
+        <v>1025435</v>
       </c>
       <c r="D10" s="10">
-        <v>514218</v>
+        <v>703344</v>
       </c>
       <c r="E10" s="10">
-        <v>375533</v>
+        <v>469954</v>
       </c>
       <c r="F10" s="10">
-        <v>17933</v>
+        <v>25423</v>
       </c>
       <c r="G10" s="10">
-        <v>120752</v>
+        <v>207967</v>
       </c>
       <c r="H10" s="11">
-        <v>15041</v>
+        <v>11180</v>
       </c>
       <c r="I10" s="12">
-        <v>8.177663134056818</v>
+        <v>11.185353875904887</v>
       </c>
       <c r="J10" s="22">
-        <v>214117</v>
+        <v>322091</v>
       </c>
       <c r="K10" s="10">
-        <v>210329</v>
+        <v>311882</v>
       </c>
       <c r="L10" s="10">
-        <v>3740</v>
+        <v>10131</v>
       </c>
       <c r="M10" s="10">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="N10" s="11">
-        <v>5066</v>
+        <v>8977</v>
       </c>
       <c r="O10" s="12">
-        <v>3.4051252528593783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.1222471724278318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28">
-        <v>178174</v>
+      <c r="C11" s="27">
+        <v>237990</v>
       </c>
       <c r="D11" s="15">
-        <v>119881</v>
+        <v>165242</v>
       </c>
       <c r="E11" s="15">
-        <v>92504</v>
+        <v>120939</v>
       </c>
       <c r="F11" s="15">
-        <v>6328</v>
+        <v>9282</v>
       </c>
       <c r="G11" s="15">
-        <v>21049</v>
+        <v>35021</v>
       </c>
       <c r="H11" s="16">
-        <v>2843</v>
+        <v>4918</v>
       </c>
       <c r="I11" s="17">
-        <v>7.4546463052300238</v>
+        <v>10.275361940330992</v>
       </c>
       <c r="J11" s="23">
-        <v>58293</v>
+        <v>72748</v>
       </c>
       <c r="K11" s="15">
-        <v>56764</v>
+        <v>69114</v>
       </c>
       <c r="L11" s="15">
-        <v>1516</v>
+        <v>3556</v>
       </c>
       <c r="M11" s="15">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="N11" s="16">
-        <v>771</v>
+        <v>2374</v>
       </c>
       <c r="O11" s="17">
-        <v>3.624875477104577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.5237411217196533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26">
-        <v>868874</v>
+      <c r="C12" s="25">
+        <v>1298053</v>
       </c>
       <c r="D12" s="10">
-        <v>606701</v>
+        <v>898368</v>
       </c>
       <c r="E12" s="10">
-        <v>427327</v>
+        <v>573242</v>
       </c>
       <c r="F12" s="10">
-        <v>21851</v>
+        <v>42728</v>
       </c>
       <c r="G12" s="10">
-        <v>157523</v>
+        <v>282398</v>
       </c>
       <c r="H12" s="11">
-        <v>12909</v>
+        <v>24516</v>
       </c>
       <c r="I12" s="12">
-        <v>7.5898267715905003</v>
+        <v>11.238579625120471</v>
       </c>
       <c r="J12" s="22">
-        <v>262173</v>
+        <v>399685</v>
       </c>
       <c r="K12" s="10">
-        <v>257429</v>
+        <v>387757</v>
       </c>
       <c r="L12" s="10">
-        <v>4744</v>
+        <v>11504</v>
       </c>
       <c r="M12" s="10">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="N12" s="11">
-        <v>9000</v>
+        <v>9049</v>
       </c>
       <c r="O12" s="12">
-        <v>3.279783046654277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5.0000575459792378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="27">
-        <v>1989474</v>
+      <c r="C13" s="26">
+        <v>2731386</v>
       </c>
       <c r="D13" s="15">
-        <v>1384577</v>
+        <v>1915290</v>
       </c>
       <c r="E13" s="15">
-        <v>986740</v>
+        <v>1197193</v>
       </c>
       <c r="F13" s="15">
-        <v>29677</v>
+        <v>72321</v>
       </c>
       <c r="G13" s="15">
-        <v>368160</v>
+        <v>645776</v>
       </c>
       <c r="H13" s="16">
-        <v>24382</v>
+        <v>24374</v>
       </c>
       <c r="I13" s="17">
-        <v>7.7147152754178494</v>
+        <v>10.671791471225545</v>
       </c>
       <c r="J13" s="23">
-        <v>604897</v>
+        <v>816096</v>
       </c>
       <c r="K13" s="15">
-        <v>591120</v>
+        <v>794412</v>
       </c>
       <c r="L13" s="15">
-        <v>13638</v>
+        <v>20748</v>
       </c>
       <c r="M13" s="15">
-        <v>139</v>
+        <v>936</v>
       </c>
       <c r="N13" s="16">
-        <v>9704</v>
+        <v>12957</v>
       </c>
       <c r="O13" s="17">
-        <v>3.3704215265416302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.5471998143890913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
-        <v>494287</v>
+      <c r="C14" s="25">
+        <v>662651</v>
       </c>
       <c r="D14" s="10">
-        <v>349682</v>
+        <v>485363</v>
       </c>
       <c r="E14" s="10">
-        <v>221462</v>
+        <v>329355</v>
       </c>
       <c r="F14" s="10">
-        <v>5152</v>
+        <v>25714</v>
       </c>
       <c r="G14" s="10">
-        <v>123068</v>
+        <v>130294</v>
       </c>
       <c r="H14" s="11">
-        <v>13335</v>
+        <v>13467</v>
       </c>
       <c r="I14" s="12">
-        <v>8.5415311501029691</v>
+        <v>11.855752322417018</v>
       </c>
       <c r="J14" s="22">
-        <v>144605</v>
+        <v>177288</v>
       </c>
       <c r="K14" s="10">
-        <v>140175</v>
+        <v>172667</v>
       </c>
       <c r="L14" s="10">
-        <v>4430</v>
+        <v>4549</v>
       </c>
       <c r="M14" s="10">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="N14" s="11">
-        <v>88</v>
+        <v>5842</v>
       </c>
       <c r="O14" s="12">
-        <v>3.5322038651135603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.3305373869385768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="27">
-        <v>122722</v>
+      <c r="C15" s="26">
+        <v>174206</v>
       </c>
       <c r="D15" s="15">
-        <v>89244</v>
+        <v>129114</v>
       </c>
       <c r="E15" s="15">
-        <v>60115</v>
+        <v>83853</v>
       </c>
       <c r="F15" s="15">
-        <v>3654</v>
+        <v>7387</v>
       </c>
       <c r="G15" s="15">
-        <v>25475</v>
+        <v>37874</v>
       </c>
       <c r="H15" s="16">
-        <v>3223</v>
+        <v>1823</v>
       </c>
       <c r="I15" s="17">
-        <v>9.0429806046690242</v>
+        <v>13.082956812684735</v>
       </c>
       <c r="J15" s="23">
-        <v>33478</v>
+        <v>45092</v>
       </c>
       <c r="K15" s="15">
-        <v>32150</v>
+        <v>43416</v>
       </c>
       <c r="L15" s="15">
-        <v>1328</v>
+        <v>1666</v>
       </c>
       <c r="M15" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N15" s="16">
-        <v>706</v>
+        <v>1801</v>
       </c>
       <c r="O15" s="17">
-        <v>3.3922830070717316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4.5691148024039228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="26">
-        <v>463529</v>
+      <c r="C16" s="25">
+        <v>641687</v>
       </c>
       <c r="D16" s="10">
-        <v>317780</v>
+        <v>399646</v>
       </c>
       <c r="E16" s="10">
-        <v>263186</v>
+        <v>292302</v>
       </c>
       <c r="F16" s="10">
-        <v>14236</v>
+        <v>22890</v>
       </c>
       <c r="G16" s="10">
-        <v>40358</v>
+        <v>84454</v>
       </c>
       <c r="H16" s="11">
-        <v>4287</v>
+        <v>8632</v>
       </c>
       <c r="I16" s="12">
-        <v>7.8040830840887612</v>
+        <v>9.8145590918992305</v>
       </c>
       <c r="J16" s="22">
-        <v>145749</v>
+        <v>242041</v>
       </c>
       <c r="K16" s="10">
-        <v>143209</v>
+        <v>230980</v>
       </c>
       <c r="L16" s="10">
-        <v>2540</v>
+        <v>11061</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>5091</v>
+        <v>7998</v>
       </c>
       <c r="O16" s="12">
-        <v>3.5793231336863651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5.9440747490588715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="27">
-        <v>231603</v>
+      <c r="C17" s="26">
+        <v>347426</v>
       </c>
       <c r="D17" s="15">
-        <v>161437</v>
+        <v>251815</v>
       </c>
       <c r="E17" s="15">
-        <v>107623</v>
+        <v>161805</v>
       </c>
       <c r="F17" s="15">
-        <v>8447</v>
+        <v>17232</v>
       </c>
       <c r="G17" s="15">
-        <v>45367</v>
+        <v>72778</v>
       </c>
       <c r="H17" s="16">
-        <v>5875</v>
+        <v>7782</v>
       </c>
       <c r="I17" s="17">
-        <v>7.3554913426481532</v>
+        <v>11.473349061546887</v>
       </c>
       <c r="J17" s="23">
-        <v>70166</v>
+        <v>95611</v>
       </c>
       <c r="K17" s="15">
-        <v>68469</v>
+        <v>90487</v>
       </c>
       <c r="L17" s="15">
-        <v>1697</v>
+        <v>5119</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="16">
-        <v>1744</v>
+        <v>2851</v>
       </c>
       <c r="O17" s="17">
-        <v>3.1969462115144012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4.3562868658481797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26">
-        <v>345899</v>
+      <c r="C18" s="25">
+        <v>490364</v>
       </c>
       <c r="D18" s="10">
-        <v>246457</v>
+        <v>375757</v>
       </c>
       <c r="E18" s="10">
-        <v>171939</v>
+        <v>247862</v>
       </c>
       <c r="F18" s="10">
-        <v>9271</v>
+        <v>20466</v>
       </c>
       <c r="G18" s="10">
-        <v>65247</v>
+        <v>107429</v>
       </c>
       <c r="H18" s="11">
-        <v>8347</v>
+        <v>10407</v>
       </c>
       <c r="I18" s="12">
-        <v>8.4874747440657394</v>
+        <v>12.940302151717784</v>
       </c>
       <c r="J18" s="22">
-        <v>99442</v>
+        <v>114607</v>
       </c>
       <c r="K18" s="10">
-        <v>97191</v>
+        <v>110967</v>
       </c>
       <c r="L18" s="10">
-        <v>2237</v>
+        <v>3536</v>
       </c>
       <c r="M18" s="10">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="N18" s="11">
-        <v>228</v>
+        <v>1474</v>
       </c>
       <c r="O18" s="12">
-        <v>3.4245789874070738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.9468305545922497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27">
-        <v>270954</v>
+      <c r="C19" s="26">
+        <v>394802</v>
       </c>
       <c r="D19" s="15">
-        <v>183370</v>
+        <v>274929</v>
       </c>
       <c r="E19" s="15">
-        <v>124809</v>
+        <v>170347</v>
       </c>
       <c r="F19" s="15">
-        <v>8314</v>
+        <v>19994</v>
       </c>
       <c r="G19" s="15">
-        <v>50247</v>
+        <v>84588</v>
       </c>
       <c r="H19" s="16">
-        <v>4299</v>
+        <v>5505</v>
       </c>
       <c r="I19" s="17">
-        <v>8.5952887861410403</v>
+        <v>12.88702705287108</v>
       </c>
       <c r="J19" s="23">
-        <v>87584</v>
+        <v>119873</v>
       </c>
       <c r="K19" s="15">
-        <v>84906</v>
+        <v>110971</v>
       </c>
       <c r="L19" s="15">
-        <v>2678</v>
+        <v>8860</v>
       </c>
       <c r="M19" s="15">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N19" s="16">
-        <v>2783</v>
+        <v>3209</v>
       </c>
       <c r="O19" s="17">
-        <v>4.1054140428934769</v>
-      </c>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-    </row>
-    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5.6189292286692751</v>
+      </c>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+    </row>
+    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="54">
-        <v>6084</v>
+      <c r="C20" s="52">
+        <v>6980</v>
       </c>
       <c r="D20" s="10">
-        <v>6064</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>60</v>
+        <v>6960</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
       </c>
       <c r="F20" s="10">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="G20" s="10">
-        <v>6034</v>
+        <v>6590</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J20" s="22">
         <v>20</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>60</v>
+      <c r="K20" s="10">
+        <v>0</v>
       </c>
       <c r="L20" s="10">
         <v>20</v>
@@ -2201,89 +2219,86 @@
         <v>0</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="46">
-        <v>9663887</v>
-      </c>
-      <c r="D21" s="44">
-        <v>6712195</v>
-      </c>
-      <c r="E21" s="44">
-        <v>4712485</v>
-      </c>
-      <c r="F21" s="44">
-        <v>251147</v>
-      </c>
-      <c r="G21" s="44">
-        <v>1748563</v>
-      </c>
-      <c r="H21" s="44">
-        <v>169080</v>
-      </c>
-      <c r="I21" s="47">
-        <v>8.0707712488473895</v>
-      </c>
-      <c r="J21" s="48">
-        <v>2951692</v>
-      </c>
-      <c r="K21" s="44">
-        <v>2874977</v>
-      </c>
-      <c r="L21" s="44">
-        <v>76465</v>
-      </c>
-      <c r="M21" s="44">
-        <v>250</v>
-      </c>
-      <c r="N21" s="44">
-        <v>56773</v>
-      </c>
-      <c r="O21" s="47">
-        <v>3.5491267653953518</v>
-      </c>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-    </row>
-    <row r="23" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="C21" s="44">
+        <v>13488151</v>
+      </c>
+      <c r="D21" s="42">
+        <v>9428662</v>
+      </c>
+      <c r="E21" s="42">
+        <v>6147152</v>
+      </c>
+      <c r="F21" s="42">
+        <v>478071</v>
+      </c>
+      <c r="G21" s="42">
+        <v>2803439</v>
+      </c>
+      <c r="H21" s="42">
+        <v>197247</v>
+      </c>
+      <c r="I21" s="45">
+        <v>11.337062493670095</v>
+      </c>
+      <c r="J21" s="46">
+        <v>4059489</v>
+      </c>
+      <c r="K21" s="42">
+        <v>3907736</v>
+      </c>
+      <c r="L21" s="42">
+        <v>149755</v>
+      </c>
+      <c r="M21" s="42">
+        <v>1998</v>
+      </c>
+      <c r="N21" s="42">
+        <v>90070</v>
+      </c>
+      <c r="O21" s="45">
+        <v>4.8811464962225086</v>
+      </c>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+    </row>
+    <row r="23" spans="1:18" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="24"/>
+    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2313,46 +2328,46 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="5"/>
-    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="5"/>
-    <col min="9" max="9" width="13.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="56.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="5"/>
+    <col min="7" max="8" width="11.42578125" style="5"/>
+    <col min="9" max="9" width="13.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="56.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2386,31 +2401,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>409111</v>
+        <v>565785</v>
       </c>
       <c r="D3" s="11">
-        <v>387027</v>
+        <v>504376</v>
       </c>
       <c r="E3" s="11">
-        <v>48743</v>
+        <v>106022</v>
       </c>
       <c r="F3" s="14">
-        <v>91018</v>
+        <v>102726</v>
       </c>
       <c r="G3" s="13">
-        <v>233539</v>
+        <v>343892</v>
       </c>
       <c r="H3" s="11">
-        <v>132427</v>
+        <v>154189</v>
       </c>
       <c r="I3" s="11">
-        <v>8694</v>
+        <v>12003</v>
       </c>
       <c r="J3" s="14">
-        <v>71244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>83540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2418,31 +2433,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="19">
-        <v>512968</v>
+        <v>723774</v>
       </c>
       <c r="D4" s="16">
-        <v>505438</v>
+        <v>621577</v>
       </c>
       <c r="E4" s="16">
-        <v>79127</v>
+        <v>150384</v>
       </c>
       <c r="F4" s="18">
-        <v>131677</v>
+        <v>139816</v>
       </c>
       <c r="G4" s="19">
-        <v>221418</v>
+        <v>361019</v>
       </c>
       <c r="H4" s="16">
-        <v>229699</v>
+        <v>260855</v>
       </c>
       <c r="I4" s="16">
-        <v>13478</v>
+        <v>24382</v>
       </c>
       <c r="J4" s="18">
-        <v>104568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>113816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>11</v>
       </c>
@@ -2450,31 +2465,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="13">
-        <v>206583</v>
+        <v>294351</v>
       </c>
       <c r="D5" s="11">
-        <v>102573</v>
+        <v>138679</v>
       </c>
       <c r="E5" s="11">
-        <v>150</v>
+        <v>9746</v>
       </c>
       <c r="F5" s="14">
-        <v>45126</v>
+        <v>49915</v>
       </c>
       <c r="G5" s="13">
-        <v>108724</v>
+        <v>160604</v>
       </c>
       <c r="H5" s="11">
-        <v>33444</v>
+        <v>41823</v>
       </c>
       <c r="I5" s="11">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="J5" s="14">
-        <v>39061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>12</v>
       </c>
@@ -2482,31 +2497,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="19">
-        <v>78339</v>
+        <v>155808</v>
       </c>
       <c r="D6" s="16">
-        <v>92542</v>
+        <v>109983</v>
       </c>
       <c r="E6" s="16">
-        <v>15116</v>
+        <v>38629</v>
       </c>
       <c r="F6" s="18">
-        <v>25004</v>
+        <v>27690</v>
       </c>
       <c r="G6" s="19">
-        <v>37637</v>
+        <v>51169</v>
       </c>
       <c r="H6" s="16">
-        <v>41649</v>
+        <v>43233</v>
       </c>
       <c r="I6" s="16">
-        <v>1254</v>
+        <v>1731</v>
       </c>
       <c r="J6" s="18">
-        <v>17706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
@@ -2514,31 +2529,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="13">
-        <v>24893</v>
+        <v>41833</v>
       </c>
       <c r="D7" s="11">
-        <v>31416</v>
+        <v>40877</v>
       </c>
       <c r="E7" s="11">
-        <v>1400</v>
+        <v>2308</v>
       </c>
       <c r="F7" s="14">
-        <v>8650</v>
+        <v>9000</v>
       </c>
       <c r="G7" s="13">
-        <v>13307</v>
+        <v>19521</v>
       </c>
       <c r="H7" s="11">
-        <v>9683</v>
+        <v>12104</v>
       </c>
       <c r="I7" s="11">
-        <v>185</v>
+        <v>503</v>
       </c>
       <c r="J7" s="14">
-        <v>7170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2546,31 +2561,31 @@
         <v>5</v>
       </c>
       <c r="C8" s="19">
-        <v>64307</v>
+        <v>78243</v>
       </c>
       <c r="D8" s="16">
-        <v>81734</v>
+        <v>116565</v>
       </c>
       <c r="E8" s="16">
-        <v>4193</v>
+        <v>9792</v>
       </c>
       <c r="F8" s="18">
-        <v>15986</v>
+        <v>15867</v>
       </c>
       <c r="G8" s="19">
-        <v>33713</v>
+        <v>49325</v>
       </c>
       <c r="H8" s="16">
-        <v>34268</v>
+        <v>35937</v>
       </c>
       <c r="I8" s="16">
-        <v>292</v>
+        <v>539</v>
       </c>
       <c r="J8" s="18">
-        <v>12983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -2578,31 +2593,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="13">
-        <v>222351</v>
+        <v>268459</v>
       </c>
       <c r="D9" s="11">
-        <v>212933</v>
+        <v>282813</v>
       </c>
       <c r="E9" s="11">
-        <v>37042</v>
+        <v>55437</v>
       </c>
       <c r="F9" s="14">
-        <v>52735</v>
+        <v>56484</v>
       </c>
       <c r="G9" s="13">
-        <v>116184</v>
+        <v>190841</v>
       </c>
       <c r="H9" s="11">
-        <v>78452</v>
+        <v>103726</v>
       </c>
       <c r="I9" s="11">
-        <v>9919</v>
+        <v>16812</v>
       </c>
       <c r="J9" s="14">
-        <v>37915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>13</v>
       </c>
@@ -2610,31 +2625,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="19">
-        <v>42501</v>
+        <v>71412</v>
       </c>
       <c r="D10" s="16">
-        <v>50878</v>
+        <v>60939</v>
       </c>
       <c r="E10" s="16">
-        <v>3534</v>
+        <v>9268</v>
       </c>
       <c r="F10" s="18">
-        <v>27093</v>
+        <v>28375</v>
       </c>
       <c r="G10" s="19">
-        <v>15374</v>
+        <v>28108</v>
       </c>
       <c r="H10" s="16">
-        <v>26808</v>
+        <v>27017</v>
       </c>
       <c r="I10" s="16">
-        <v>779</v>
+        <v>1148</v>
       </c>
       <c r="J10" s="18">
-        <v>16974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2642,31 +2657,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="13">
-        <v>274276</v>
+        <v>439087</v>
       </c>
       <c r="D11" s="11">
-        <v>263152</v>
+        <v>371693</v>
       </c>
       <c r="E11" s="11">
-        <v>55142</v>
+        <v>75086</v>
       </c>
       <c r="F11" s="14">
-        <v>99861</v>
+        <v>108520</v>
       </c>
       <c r="G11" s="13">
-        <v>109575</v>
+        <v>235596</v>
       </c>
       <c r="H11" s="11">
-        <v>103849</v>
+        <v>111242</v>
       </c>
       <c r="I11" s="11">
-        <v>31056</v>
+        <v>35774</v>
       </c>
       <c r="J11" s="14">
-        <v>82979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>87450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -2674,31 +2689,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="19">
-        <v>499111</v>
+        <v>768992</v>
       </c>
       <c r="D12" s="16">
-        <v>745856</v>
+        <v>1016133</v>
       </c>
       <c r="E12" s="16">
-        <v>26873</v>
+        <v>73728</v>
       </c>
       <c r="F12" s="18">
-        <v>193249</v>
+        <v>202802</v>
       </c>
       <c r="G12" s="19">
-        <v>192638</v>
+        <v>426136</v>
       </c>
       <c r="H12" s="16">
-        <v>313920</v>
+        <v>333422</v>
       </c>
       <c r="I12" s="16">
-        <v>15283</v>
+        <v>20614</v>
       </c>
       <c r="J12" s="18">
-        <v>151990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -2706,31 +2721,31 @@
         <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>119165</v>
+        <v>210382</v>
       </c>
       <c r="D13" s="11">
-        <v>184660</v>
+        <v>218562</v>
       </c>
       <c r="E13" s="11">
-        <v>9068</v>
+        <v>23853</v>
       </c>
       <c r="F13" s="14">
-        <v>36789</v>
+        <v>46992</v>
       </c>
       <c r="G13" s="13">
-        <v>52918</v>
+        <v>107707</v>
       </c>
       <c r="H13" s="11">
-        <v>59299</v>
+        <v>59564</v>
       </c>
       <c r="I13" s="11">
-        <v>97</v>
+        <v>697</v>
       </c>
       <c r="J13" s="14">
-        <v>32291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -2738,31 +2753,31 @@
         <v>13</v>
       </c>
       <c r="C14" s="19">
-        <v>48166</v>
+        <v>66439</v>
       </c>
       <c r="D14" s="16">
-        <v>32437</v>
+        <v>44809</v>
       </c>
       <c r="E14" s="16">
-        <v>3469</v>
+        <v>9100</v>
       </c>
       <c r="F14" s="18">
-        <v>11737</v>
+        <v>15295</v>
       </c>
       <c r="G14" s="19">
-        <v>21938</v>
+        <v>31876</v>
       </c>
       <c r="H14" s="16">
-        <v>8123</v>
+        <v>9652</v>
       </c>
       <c r="I14" s="16">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J14" s="18">
-        <v>9609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2770,31 +2785,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="13">
-        <v>125269</v>
+        <v>138364</v>
       </c>
       <c r="D15" s="11">
-        <v>122045</v>
+        <v>147057</v>
       </c>
       <c r="E15" s="11">
-        <v>20874</v>
+        <v>40205</v>
       </c>
       <c r="F15" s="14">
         <v>33995</v>
       </c>
       <c r="G15" s="13">
-        <v>63508</v>
+        <v>128319</v>
       </c>
       <c r="H15" s="11">
-        <v>56328</v>
+        <v>77342</v>
       </c>
       <c r="I15" s="11">
-        <v>8884</v>
+        <v>12770</v>
       </c>
       <c r="J15" s="14">
-        <v>21953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2802,31 +2817,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>64351</v>
+        <v>114627</v>
       </c>
       <c r="D16" s="16">
-        <v>76096</v>
+        <v>96119</v>
       </c>
       <c r="E16" s="16">
-        <v>8695</v>
+        <v>21224</v>
       </c>
       <c r="F16" s="18">
-        <v>32953</v>
+        <v>36194</v>
       </c>
       <c r="G16" s="19">
-        <v>28093</v>
+        <v>47741</v>
       </c>
       <c r="H16" s="16">
-        <v>32514</v>
+        <v>35809</v>
       </c>
       <c r="I16" s="16">
-        <v>3610</v>
+        <v>4611</v>
       </c>
       <c r="J16" s="18">
-        <v>21310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -2834,32 +2849,32 @@
         <v>11</v>
       </c>
       <c r="C17" s="13">
-        <v>110702</v>
+        <v>191089</v>
       </c>
       <c r="D17" s="11">
-        <v>103009</v>
+        <v>133164</v>
       </c>
       <c r="E17" s="11">
-        <v>12748</v>
+        <v>30698</v>
       </c>
       <c r="F17" s="14">
-        <v>56297</v>
+        <v>66218</v>
       </c>
       <c r="G17" s="13">
-        <v>41876</v>
+        <v>53408</v>
       </c>
       <c r="H17" s="11">
-        <v>37375</v>
+        <v>39759</v>
       </c>
       <c r="I17" s="11">
-        <v>8911</v>
+        <v>9005</v>
       </c>
       <c r="J17" s="14">
-        <v>42632</v>
-      </c>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45233</v>
+      </c>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -2867,120 +2882,120 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <v>87759</v>
+        <v>138827</v>
       </c>
       <c r="D18" s="16">
-        <v>73941</v>
+        <v>89314</v>
       </c>
       <c r="E18" s="16">
-        <v>16893</v>
+        <v>38885</v>
       </c>
       <c r="F18" s="18">
-        <v>26237</v>
+        <v>29589</v>
       </c>
       <c r="G18" s="16">
-        <v>47193</v>
+        <v>69793</v>
       </c>
       <c r="H18" s="16">
-        <v>34115</v>
+        <v>41785</v>
       </c>
       <c r="I18" s="16">
-        <v>3882</v>
+        <v>5053</v>
       </c>
       <c r="J18" s="18">
-        <v>17271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D19" s="11">
-        <v>6064</v>
+        <v>6960</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H19" s="11">
         <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="49">
-        <v>2889852</v>
-      </c>
-      <c r="D20" s="50">
-        <v>3065737</v>
-      </c>
-      <c r="E20" s="50">
-        <v>343067</v>
-      </c>
-      <c r="F20" s="51">
-        <v>888407</v>
-      </c>
-      <c r="G20" s="49">
-        <v>1337635</v>
-      </c>
-      <c r="H20" s="50">
-        <v>1231953</v>
-      </c>
-      <c r="I20" s="50">
-        <v>106375</v>
-      </c>
-      <c r="J20" s="51">
-        <v>687656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="47">
+        <v>4267472</v>
+      </c>
+      <c r="D20" s="48">
+        <v>3999620</v>
+      </c>
+      <c r="E20" s="48">
+        <v>694365</v>
+      </c>
+      <c r="F20" s="49">
+        <v>969478</v>
+      </c>
+      <c r="G20" s="47">
+        <v>2305055</v>
+      </c>
+      <c r="H20" s="48">
+        <v>1387479</v>
+      </c>
+      <c r="I20" s="48">
+        <v>146003</v>
+      </c>
+      <c r="J20" s="49">
+        <v>740578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
     </row>
   </sheetData>
@@ -3001,22 +3016,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -3025,1161 +3040,1402 @@
       <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
         <v>44192</v>
       </c>
-      <c r="B2" s="33">
-        <v>23569</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="B2" s="32">
+        <v>23779</v>
+      </c>
+      <c r="C2" s="32">
+        <v>137</v>
+      </c>
+      <c r="D2" s="32">
+        <v>23916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>44193</v>
+      </c>
+      <c r="B3" s="32">
+        <v>18391</v>
+      </c>
+      <c r="C3" s="32">
         <v>0</v>
       </c>
-      <c r="D2" s="33">
-        <v>23569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
-        <v>44193</v>
-      </c>
-      <c r="B3" s="33">
-        <v>18740</v>
-      </c>
-      <c r="C3" s="33">
+      <c r="D3" s="32">
+        <v>18391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>44194</v>
+      </c>
+      <c r="B4" s="32">
+        <v>47613</v>
+      </c>
+      <c r="C4" s="32">
+        <v>591</v>
+      </c>
+      <c r="D4" s="32">
+        <v>48204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>44195</v>
+      </c>
+      <c r="B5" s="32">
+        <v>60821</v>
+      </c>
+      <c r="C5" s="32">
+        <v>4</v>
+      </c>
+      <c r="D5" s="32">
+        <v>60825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>44196</v>
+      </c>
+      <c r="B6" s="32">
+        <v>48359</v>
+      </c>
+      <c r="C6" s="32">
+        <v>113</v>
+      </c>
+      <c r="D6" s="32">
+        <v>48472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>44197</v>
+      </c>
+      <c r="B7" s="32">
+        <v>19275</v>
+      </c>
+      <c r="C7" s="32">
         <v>0</v>
       </c>
-      <c r="D3" s="33">
-        <v>18740</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>44194</v>
-      </c>
-      <c r="B4" s="33">
-        <v>42651</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="D7" s="32">
+        <v>19275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>44198</v>
+      </c>
+      <c r="B8" s="32">
+        <v>52391</v>
+      </c>
+      <c r="C8" s="32">
+        <v>215</v>
+      </c>
+      <c r="D8" s="32">
+        <v>52606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>44199</v>
+      </c>
+      <c r="B9" s="32">
+        <v>24091</v>
+      </c>
+      <c r="C9" s="32">
         <v>0</v>
       </c>
-      <c r="D4" s="33">
-        <v>42651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>44195</v>
-      </c>
-      <c r="B5" s="33">
-        <v>58001</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="D9" s="32">
+        <v>24091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>44200</v>
+      </c>
+      <c r="B10" s="32">
+        <v>48346</v>
+      </c>
+      <c r="C10" s="32">
         <v>0</v>
       </c>
-      <c r="D5" s="33">
-        <v>58001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>44196</v>
-      </c>
-      <c r="B6" s="33">
-        <v>38617</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
-        <v>38617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>44197</v>
-      </c>
-      <c r="B7" s="33">
-        <v>24749</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>24749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>44198</v>
-      </c>
-      <c r="B8" s="33">
-        <v>52182</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0</v>
-      </c>
-      <c r="D8" s="33">
-        <v>52182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>44199</v>
-      </c>
-      <c r="B9" s="33">
-        <v>24986</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>24986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>44200</v>
-      </c>
-      <c r="B10" s="33">
-        <v>48685</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
-        <v>48685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="D10" s="32">
+        <v>48346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>44201</v>
       </c>
-      <c r="B11" s="33">
-        <v>52456</v>
-      </c>
-      <c r="C11" s="33">
-        <v>0</v>
-      </c>
-      <c r="D11" s="33">
-        <v>52456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="B11" s="32">
+        <v>53336</v>
+      </c>
+      <c r="C11" s="32">
+        <v>23</v>
+      </c>
+      <c r="D11" s="32">
+        <v>53359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>44202</v>
       </c>
-      <c r="B12" s="33">
-        <v>59167</v>
-      </c>
-      <c r="C12" s="33">
-        <v>0</v>
-      </c>
-      <c r="D12" s="33">
-        <v>59167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="B12" s="32">
+        <v>62743</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32">
+        <v>62744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
         <v>44203</v>
       </c>
-      <c r="B13" s="33">
-        <v>58462</v>
-      </c>
-      <c r="C13" s="33">
-        <v>0</v>
-      </c>
-      <c r="D13" s="33">
-        <v>58462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="B13" s="32">
+        <v>55747</v>
+      </c>
+      <c r="C13" s="32">
+        <v>4</v>
+      </c>
+      <c r="D13" s="32">
+        <v>55751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
         <v>44204</v>
       </c>
-      <c r="B14" s="33">
-        <v>60445</v>
-      </c>
-      <c r="C14" s="33">
-        <v>0</v>
-      </c>
-      <c r="D14" s="33">
-        <v>60445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="B14" s="32">
+        <v>62366</v>
+      </c>
+      <c r="C14" s="32">
+        <v>299</v>
+      </c>
+      <c r="D14" s="32">
+        <v>62665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
         <v>44205</v>
       </c>
-      <c r="B15" s="33">
-        <v>57323</v>
-      </c>
-      <c r="C15" s="33">
-        <v>0</v>
-      </c>
-      <c r="D15" s="33">
-        <v>57323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="B15" s="32">
+        <v>60800</v>
+      </c>
+      <c r="C15" s="32">
+        <v>50</v>
+      </c>
+      <c r="D15" s="32">
+        <v>60850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
         <v>44206</v>
       </c>
-      <c r="B16" s="33">
-        <v>33280</v>
-      </c>
-      <c r="C16" s="33">
-        <v>0</v>
-      </c>
-      <c r="D16" s="33">
-        <v>33280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+      <c r="B16" s="32">
+        <v>34974</v>
+      </c>
+      <c r="C16" s="32">
+        <v>6</v>
+      </c>
+      <c r="D16" s="32">
+        <v>34980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
         <v>44207</v>
       </c>
-      <c r="B17" s="33">
-        <v>65667</v>
-      </c>
-      <c r="C17" s="33">
-        <v>0</v>
-      </c>
-      <c r="D17" s="33">
-        <v>65667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="38">
+      <c r="B17" s="32">
+        <v>65885</v>
+      </c>
+      <c r="C17" s="32">
+        <v>47</v>
+      </c>
+      <c r="D17" s="32">
+        <v>65932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
         <v>44208</v>
       </c>
-      <c r="B18" s="33">
-        <v>82084</v>
-      </c>
-      <c r="C18" s="33">
-        <v>0</v>
-      </c>
-      <c r="D18" s="33">
-        <v>82084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
+      <c r="B18" s="32">
+        <v>82338</v>
+      </c>
+      <c r="C18" s="32">
+        <v>50</v>
+      </c>
+      <c r="D18" s="32">
+        <v>82388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
         <v>44209</v>
       </c>
-      <c r="B19" s="33">
-        <v>99086</v>
-      </c>
-      <c r="C19" s="33">
-        <v>0</v>
-      </c>
-      <c r="D19" s="33">
-        <v>99086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+      <c r="B19" s="32">
+        <v>110191</v>
+      </c>
+      <c r="C19" s="32">
+        <v>364</v>
+      </c>
+      <c r="D19" s="32">
+        <v>110555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
         <v>44210</v>
       </c>
-      <c r="B20" s="33">
-        <v>100115</v>
-      </c>
-      <c r="C20" s="33">
-        <v>114</v>
-      </c>
-      <c r="D20" s="33">
-        <v>100229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="B20" s="32">
+        <v>82107</v>
+      </c>
+      <c r="C20" s="32">
+        <v>279</v>
+      </c>
+      <c r="D20" s="32">
+        <v>82386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>44211</v>
       </c>
-      <c r="B21" s="33">
-        <v>92396</v>
-      </c>
-      <c r="C21" s="33">
-        <v>428</v>
-      </c>
-      <c r="D21" s="33">
-        <v>92824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="B21" s="32">
+        <v>89156</v>
+      </c>
+      <c r="C21" s="32">
+        <v>670</v>
+      </c>
+      <c r="D21" s="32">
+        <v>89826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>44212</v>
       </c>
-      <c r="B22" s="33">
-        <v>56703</v>
-      </c>
-      <c r="C22" s="33">
-        <v>397</v>
-      </c>
-      <c r="D22" s="33">
-        <v>57100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+      <c r="B22" s="32">
+        <v>55869</v>
+      </c>
+      <c r="C22" s="32">
+        <v>960</v>
+      </c>
+      <c r="D22" s="32">
+        <v>56829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>44213</v>
       </c>
-      <c r="B23" s="33">
-        <v>30897</v>
-      </c>
-      <c r="C23" s="33">
-        <v>13611</v>
-      </c>
-      <c r="D23" s="33">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+      <c r="B23" s="32">
+        <v>30366</v>
+      </c>
+      <c r="C23" s="32">
+        <v>16616</v>
+      </c>
+      <c r="D23" s="32">
+        <v>46982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>44214</v>
       </c>
-      <c r="B24" s="33">
-        <v>57985</v>
-      </c>
-      <c r="C24" s="33">
-        <v>16372</v>
-      </c>
-      <c r="D24" s="33">
-        <v>74357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="B24" s="32">
+        <v>64661</v>
+      </c>
+      <c r="C24" s="32">
+        <v>15557</v>
+      </c>
+      <c r="D24" s="32">
+        <v>80218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>44215</v>
       </c>
-      <c r="B25" s="33">
-        <v>68172</v>
-      </c>
-      <c r="C25" s="33">
-        <v>27229</v>
-      </c>
-      <c r="D25" s="33">
-        <v>95401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
+      <c r="B25" s="32">
+        <v>79487</v>
+      </c>
+      <c r="C25" s="32">
+        <v>31741</v>
+      </c>
+      <c r="D25" s="32">
+        <v>111228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>44216</v>
       </c>
-      <c r="B26" s="33">
-        <v>78284</v>
-      </c>
-      <c r="C26" s="33">
-        <v>50656</v>
-      </c>
-      <c r="D26" s="33">
-        <v>128940</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
+      <c r="B26" s="32">
+        <v>78740</v>
+      </c>
+      <c r="C26" s="32">
+        <v>50448</v>
+      </c>
+      <c r="D26" s="32">
+        <v>129188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
         <v>44217</v>
       </c>
-      <c r="B27" s="33">
-        <v>60697</v>
-      </c>
-      <c r="C27" s="33">
-        <v>35435</v>
-      </c>
-      <c r="D27" s="33">
-        <v>96132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
+      <c r="B27" s="32">
+        <v>63748</v>
+      </c>
+      <c r="C27" s="32">
+        <v>39399</v>
+      </c>
+      <c r="D27" s="32">
+        <v>103147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>44218</v>
       </c>
-      <c r="B28" s="33">
-        <v>84252</v>
-      </c>
-      <c r="C28" s="33">
-        <v>31358</v>
-      </c>
-      <c r="D28" s="33">
-        <v>115610</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="38">
+      <c r="B28" s="32">
+        <v>67300</v>
+      </c>
+      <c r="C28" s="32">
+        <v>34135</v>
+      </c>
+      <c r="D28" s="32">
+        <v>101435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
         <v>44219</v>
       </c>
-      <c r="B29" s="33">
-        <v>48969</v>
-      </c>
-      <c r="C29" s="33">
-        <v>43950</v>
-      </c>
-      <c r="D29" s="33">
-        <v>92919</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="38">
+      <c r="B29" s="32">
+        <v>40655</v>
+      </c>
+      <c r="C29" s="32">
+        <v>44320</v>
+      </c>
+      <c r="D29" s="32">
+        <v>84975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
         <v>44220</v>
       </c>
-      <c r="B30" s="33">
-        <v>38211</v>
-      </c>
-      <c r="C30" s="33">
-        <v>28089</v>
-      </c>
-      <c r="D30" s="33">
-        <v>66300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="B30" s="32">
+        <v>25417</v>
+      </c>
+      <c r="C30" s="32">
+        <v>23731</v>
+      </c>
+      <c r="D30" s="32">
+        <v>49148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
         <v>44221</v>
       </c>
-      <c r="B31" s="33">
-        <v>58192</v>
-      </c>
-      <c r="C31" s="33">
+      <c r="B31" s="32">
+        <v>58006</v>
+      </c>
+      <c r="C31" s="32">
+        <v>37728</v>
+      </c>
+      <c r="D31" s="32">
+        <v>95734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>44222</v>
+      </c>
+      <c r="B32" s="32">
+        <v>50894</v>
+      </c>
+      <c r="C32" s="32">
+        <v>48019</v>
+      </c>
+      <c r="D32" s="32">
+        <v>98913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>44223</v>
+      </c>
+      <c r="B33" s="32">
+        <v>51608</v>
+      </c>
+      <c r="C33" s="32">
+        <v>58804</v>
+      </c>
+      <c r="D33" s="32">
+        <v>110412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
+        <v>44224</v>
+      </c>
+      <c r="B34" s="32">
+        <v>44926</v>
+      </c>
+      <c r="C34" s="32">
+        <v>45627</v>
+      </c>
+      <c r="D34" s="32">
+        <v>90553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
+        <v>44225</v>
+      </c>
+      <c r="B35" s="32">
+        <v>51109</v>
+      </c>
+      <c r="C35" s="32">
+        <v>56317</v>
+      </c>
+      <c r="D35" s="32">
+        <v>107426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>44226</v>
+      </c>
+      <c r="B36" s="32">
+        <v>34911</v>
+      </c>
+      <c r="C36" s="32">
+        <v>50208</v>
+      </c>
+      <c r="D36" s="32">
+        <v>85119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>44227</v>
+      </c>
+      <c r="B37" s="32">
+        <v>26432</v>
+      </c>
+      <c r="C37" s="32">
+        <v>30008</v>
+      </c>
+      <c r="D37" s="32">
+        <v>56440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>44228</v>
+      </c>
+      <c r="B38" s="32">
+        <v>57997</v>
+      </c>
+      <c r="C38" s="32">
+        <v>61475</v>
+      </c>
+      <c r="D38" s="32">
+        <v>119472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>44229</v>
+      </c>
+      <c r="B39" s="32">
+        <v>61959</v>
+      </c>
+      <c r="C39" s="32">
+        <v>65935</v>
+      </c>
+      <c r="D39" s="32">
+        <v>127894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <v>44230</v>
+      </c>
+      <c r="B40" s="32">
+        <v>62886</v>
+      </c>
+      <c r="C40" s="32">
+        <v>91750</v>
+      </c>
+      <c r="D40" s="32">
+        <v>154636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>44231</v>
+      </c>
+      <c r="B41" s="32">
+        <v>59749</v>
+      </c>
+      <c r="C41" s="32">
+        <v>69079</v>
+      </c>
+      <c r="D41" s="32">
+        <v>128828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>44232</v>
+      </c>
+      <c r="B42" s="32">
+        <v>64672</v>
+      </c>
+      <c r="C42" s="32">
+        <v>74258</v>
+      </c>
+      <c r="D42" s="32">
+        <v>138930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>44233</v>
+      </c>
+      <c r="B43" s="32">
+        <v>45421</v>
+      </c>
+      <c r="C43" s="32">
+        <v>50798</v>
+      </c>
+      <c r="D43" s="32">
+        <v>96219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
+        <v>44234</v>
+      </c>
+      <c r="B44" s="32">
+        <v>28026</v>
+      </c>
+      <c r="C44" s="32">
+        <v>24724</v>
+      </c>
+      <c r="D44" s="32">
+        <v>52750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
+        <v>44235</v>
+      </c>
+      <c r="B45" s="32">
+        <v>53024</v>
+      </c>
+      <c r="C45" s="32">
+        <v>55571</v>
+      </c>
+      <c r="D45" s="32">
+        <v>108595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
+        <v>44236</v>
+      </c>
+      <c r="B46" s="32">
+        <v>59068</v>
+      </c>
+      <c r="C46" s="32">
+        <v>71945</v>
+      </c>
+      <c r="D46" s="32">
+        <v>131013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
+        <v>44237</v>
+      </c>
+      <c r="B47" s="32">
+        <v>72749</v>
+      </c>
+      <c r="C47" s="32">
+        <v>73792</v>
+      </c>
+      <c r="D47" s="32">
+        <v>146541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
+        <v>44238</v>
+      </c>
+      <c r="B48" s="32">
+        <v>73087</v>
+      </c>
+      <c r="C48" s="32">
+        <v>67911</v>
+      </c>
+      <c r="D48" s="32">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="37">
+        <v>44239</v>
+      </c>
+      <c r="B49" s="32">
+        <v>79234</v>
+      </c>
+      <c r="C49" s="32">
+        <v>75488</v>
+      </c>
+      <c r="D49" s="32">
+        <v>154722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="37">
+        <v>44240</v>
+      </c>
+      <c r="B50" s="32">
+        <v>61681</v>
+      </c>
+      <c r="C50" s="32">
+        <v>45964</v>
+      </c>
+      <c r="D50" s="32">
+        <v>107645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
+        <v>44241</v>
+      </c>
+      <c r="B51" s="32">
         <v>39738</v>
       </c>
-      <c r="D31" s="33">
-        <v>97930</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
-        <v>44222</v>
-      </c>
-      <c r="B32" s="33">
-        <v>53109</v>
-      </c>
-      <c r="C32" s="33">
-        <v>49610</v>
-      </c>
-      <c r="D32" s="33">
-        <v>102719</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="38">
-        <v>44223</v>
-      </c>
-      <c r="B33" s="33">
-        <v>54054</v>
-      </c>
-      <c r="C33" s="33">
-        <v>59285</v>
-      </c>
-      <c r="D33" s="33">
-        <v>113339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="38">
-        <v>44224</v>
-      </c>
-      <c r="B34" s="33">
-        <v>51583</v>
-      </c>
-      <c r="C34" s="33">
-        <v>49014</v>
-      </c>
-      <c r="D34" s="33">
-        <v>100597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="38">
-        <v>44225</v>
-      </c>
-      <c r="B35" s="33">
-        <v>55982</v>
-      </c>
-      <c r="C35" s="33">
-        <v>53757</v>
-      </c>
-      <c r="D35" s="33">
-        <v>109739</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="38">
-        <v>44226</v>
-      </c>
-      <c r="B36" s="33">
-        <v>39592</v>
-      </c>
-      <c r="C36" s="33">
-        <v>48588</v>
-      </c>
-      <c r="D36" s="33">
-        <v>88180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
-        <v>44227</v>
-      </c>
-      <c r="B37" s="33">
-        <v>31325</v>
-      </c>
-      <c r="C37" s="33">
-        <v>31380</v>
-      </c>
-      <c r="D37" s="33">
-        <v>62705</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="38">
-        <v>44228</v>
-      </c>
-      <c r="B38" s="33">
-        <v>50092</v>
-      </c>
-      <c r="C38" s="33">
-        <v>65861</v>
-      </c>
-      <c r="D38" s="33">
-        <v>115953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="38">
-        <v>44229</v>
-      </c>
-      <c r="B39" s="33">
-        <v>57927</v>
-      </c>
-      <c r="C39" s="33">
-        <v>69748</v>
-      </c>
-      <c r="D39" s="33">
-        <v>127675</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="38">
-        <v>44230</v>
-      </c>
-      <c r="B40" s="33">
-        <v>57977</v>
-      </c>
-      <c r="C40" s="33">
-        <v>84742</v>
-      </c>
-      <c r="D40" s="33">
-        <v>142719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="38">
-        <v>44231</v>
-      </c>
-      <c r="B41" s="33">
-        <v>63139</v>
-      </c>
-      <c r="C41" s="33">
-        <v>72687</v>
-      </c>
-      <c r="D41" s="33">
-        <v>135826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38">
-        <v>44232</v>
-      </c>
-      <c r="B42" s="33">
-        <v>59865</v>
-      </c>
-      <c r="C42" s="33">
-        <v>73707</v>
-      </c>
-      <c r="D42" s="33">
-        <v>133572</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="38">
-        <v>44233</v>
-      </c>
-      <c r="B43" s="33">
-        <v>48615</v>
-      </c>
-      <c r="C43" s="33">
-        <v>55255</v>
-      </c>
-      <c r="D43" s="33">
-        <v>103870</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="38">
-        <v>44234</v>
-      </c>
-      <c r="B44" s="33">
-        <v>32873</v>
-      </c>
-      <c r="C44" s="33">
-        <v>26517</v>
-      </c>
-      <c r="D44" s="33">
-        <v>59390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="38">
-        <v>44235</v>
-      </c>
-      <c r="B45" s="33">
-        <v>54801</v>
-      </c>
-      <c r="C45" s="33">
-        <v>51617</v>
-      </c>
-      <c r="D45" s="33">
-        <v>106418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="38">
-        <v>44236</v>
-      </c>
-      <c r="B46" s="33">
-        <v>59665</v>
-      </c>
-      <c r="C46" s="33">
-        <v>65161</v>
-      </c>
-      <c r="D46" s="33">
-        <v>124826</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="38">
-        <v>44237</v>
-      </c>
-      <c r="B47" s="33">
-        <v>75272</v>
-      </c>
-      <c r="C47" s="33">
-        <v>75113</v>
-      </c>
-      <c r="D47" s="33">
-        <v>150385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="38">
-        <v>44238</v>
-      </c>
-      <c r="B48" s="33">
-        <v>71446</v>
-      </c>
-      <c r="C48" s="33">
-        <v>72440</v>
-      </c>
-      <c r="D48" s="33">
-        <v>143886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="38">
-        <v>44239</v>
-      </c>
-      <c r="B49" s="33">
-        <v>80124</v>
-      </c>
-      <c r="C49" s="33">
-        <v>78379</v>
-      </c>
-      <c r="D49" s="33">
-        <v>158503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="38">
-        <v>44240</v>
-      </c>
-      <c r="B50" s="33">
-        <v>63273</v>
-      </c>
-      <c r="C50" s="33">
-        <v>46644</v>
-      </c>
-      <c r="D50" s="33">
-        <v>109917</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="38">
-        <v>44241</v>
-      </c>
-      <c r="B51" s="33">
-        <v>39787</v>
-      </c>
-      <c r="C51" s="33">
-        <v>26981</v>
-      </c>
-      <c r="D51" s="33">
-        <v>66768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="38">
+      <c r="C51" s="32">
+        <v>25016</v>
+      </c>
+      <c r="D51" s="32">
+        <v>64754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="37">
         <v>44242</v>
       </c>
-      <c r="B52" s="33">
-        <v>70784</v>
-      </c>
-      <c r="C52" s="33">
-        <v>56019</v>
-      </c>
-      <c r="D52" s="33">
-        <v>126803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38">
+      <c r="B52" s="32">
+        <v>70185</v>
+      </c>
+      <c r="C52" s="32">
+        <v>55540</v>
+      </c>
+      <c r="D52" s="32">
+        <v>125725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37">
         <v>44243</v>
       </c>
-      <c r="B53" s="33">
-        <v>81520</v>
-      </c>
-      <c r="C53" s="33">
-        <v>54757</v>
-      </c>
-      <c r="D53" s="33">
-        <v>136277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38">
+      <c r="B53" s="32">
+        <v>81253</v>
+      </c>
+      <c r="C53" s="32">
+        <v>52791</v>
+      </c>
+      <c r="D53" s="32">
+        <v>134044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
         <v>44244</v>
       </c>
-      <c r="B54" s="33">
-        <v>94653</v>
-      </c>
-      <c r="C54" s="33">
-        <v>54646</v>
-      </c>
-      <c r="D54" s="33">
-        <v>149299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="38">
+      <c r="B54" s="32">
+        <v>93909</v>
+      </c>
+      <c r="C54" s="32">
+        <v>55106</v>
+      </c>
+      <c r="D54" s="32">
+        <v>149015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="37">
         <v>44245</v>
       </c>
-      <c r="B55" s="33">
-        <v>93570</v>
-      </c>
-      <c r="C55" s="33">
-        <v>52046</v>
-      </c>
-      <c r="D55" s="33">
-        <v>145616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38">
+      <c r="B55" s="32">
+        <v>91743</v>
+      </c>
+      <c r="C55" s="32">
+        <v>51340</v>
+      </c>
+      <c r="D55" s="32">
+        <v>143083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
         <v>44246</v>
       </c>
-      <c r="B56" s="33">
-        <v>97188</v>
-      </c>
-      <c r="C56" s="33">
-        <v>53496</v>
-      </c>
-      <c r="D56" s="33">
-        <v>150684</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38">
+      <c r="B56" s="32">
+        <v>98384</v>
+      </c>
+      <c r="C56" s="32">
+        <v>52919</v>
+      </c>
+      <c r="D56" s="32">
+        <v>151303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37">
         <v>44247</v>
       </c>
-      <c r="B57" s="33">
-        <v>74961</v>
-      </c>
-      <c r="C57" s="33">
-        <v>37662</v>
-      </c>
-      <c r="D57" s="33">
-        <v>112623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38">
+      <c r="B57" s="32">
+        <v>76364</v>
+      </c>
+      <c r="C57" s="32">
+        <v>37583</v>
+      </c>
+      <c r="D57" s="32">
+        <v>113947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37">
         <v>44248</v>
       </c>
-      <c r="B58" s="33">
-        <v>56633</v>
-      </c>
-      <c r="C58" s="33">
-        <v>28938</v>
-      </c>
-      <c r="D58" s="33">
-        <v>85571</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38">
+      <c r="B58" s="32">
+        <v>56881</v>
+      </c>
+      <c r="C58" s="32">
+        <v>28728</v>
+      </c>
+      <c r="D58" s="32">
+        <v>85609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37">
         <v>44249</v>
       </c>
-      <c r="B59" s="33">
-        <v>99204</v>
-      </c>
-      <c r="C59" s="33">
-        <v>52972</v>
-      </c>
-      <c r="D59" s="33">
-        <v>152176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38">
+      <c r="B59" s="32">
+        <v>99241</v>
+      </c>
+      <c r="C59" s="32">
+        <v>59918</v>
+      </c>
+      <c r="D59" s="32">
+        <v>159159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37">
         <v>44250</v>
       </c>
-      <c r="B60" s="33">
-        <v>104259</v>
-      </c>
-      <c r="C60" s="33">
-        <v>55643</v>
-      </c>
-      <c r="D60" s="33">
-        <v>159902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38">
+      <c r="B60" s="32">
+        <v>105982</v>
+      </c>
+      <c r="C60" s="32">
+        <v>58975</v>
+      </c>
+      <c r="D60" s="32">
+        <v>164957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37">
         <v>44251</v>
       </c>
-      <c r="B61" s="33">
-        <v>116796</v>
-      </c>
-      <c r="C61" s="33">
-        <v>57949</v>
-      </c>
-      <c r="D61" s="33">
-        <v>174745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38">
+      <c r="B61" s="32">
+        <v>114360</v>
+      </c>
+      <c r="C61" s="32">
+        <v>58520</v>
+      </c>
+      <c r="D61" s="32">
+        <v>172880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
         <v>44252</v>
       </c>
-      <c r="B62" s="33">
-        <v>127154</v>
-      </c>
-      <c r="C62" s="33">
-        <v>52369</v>
-      </c>
-      <c r="D62" s="33">
-        <v>179523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38">
+      <c r="B62" s="32">
+        <v>129046</v>
+      </c>
+      <c r="C62" s="32">
+        <v>56746</v>
+      </c>
+      <c r="D62" s="32">
+        <v>185792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37">
         <v>44253</v>
       </c>
-      <c r="B63" s="33">
-        <v>136522</v>
-      </c>
-      <c r="C63" s="33">
-        <v>58838</v>
-      </c>
-      <c r="D63" s="33">
-        <v>195360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="38">
+      <c r="B63" s="32">
+        <v>141804</v>
+      </c>
+      <c r="C63" s="32">
+        <v>62405</v>
+      </c>
+      <c r="D63" s="32">
+        <v>204209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
         <v>44254</v>
       </c>
-      <c r="B64" s="33">
-        <v>107836</v>
-      </c>
-      <c r="C64" s="33">
-        <v>38858</v>
-      </c>
-      <c r="D64" s="33">
-        <v>146694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="38">
+      <c r="B64" s="32">
+        <v>107523</v>
+      </c>
+      <c r="C64" s="32">
+        <v>39265</v>
+      </c>
+      <c r="D64" s="32">
+        <v>146788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
         <v>44255</v>
       </c>
-      <c r="B65" s="33">
-        <v>85649</v>
-      </c>
-      <c r="C65" s="33">
-        <v>27932</v>
-      </c>
-      <c r="D65" s="33">
-        <v>113581</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="38">
+      <c r="B65" s="32">
+        <v>83683</v>
+      </c>
+      <c r="C65" s="32">
+        <v>24178</v>
+      </c>
+      <c r="D65" s="32">
+        <v>107861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="37">
         <v>44256</v>
       </c>
-      <c r="B66" s="33">
-        <v>141232</v>
-      </c>
-      <c r="C66" s="33">
-        <v>50255</v>
-      </c>
-      <c r="D66" s="33">
-        <v>191487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="38">
+      <c r="B66" s="32">
+        <v>143817</v>
+      </c>
+      <c r="C66" s="32">
+        <v>48925</v>
+      </c>
+      <c r="D66" s="32">
+        <v>192742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="37">
         <v>44257</v>
       </c>
-      <c r="B67" s="33">
-        <v>159571</v>
-      </c>
-      <c r="C67" s="33">
-        <v>55657</v>
-      </c>
-      <c r="D67" s="33">
-        <v>215228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="38">
+      <c r="B67" s="32">
+        <v>163873</v>
+      </c>
+      <c r="C67" s="32">
+        <v>53068</v>
+      </c>
+      <c r="D67" s="32">
+        <v>216941</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="37">
         <v>44258</v>
       </c>
-      <c r="B68" s="33">
-        <v>172865</v>
-      </c>
-      <c r="C68" s="33">
-        <v>67227</v>
-      </c>
-      <c r="D68" s="33">
-        <v>240092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="38">
+      <c r="B68" s="32">
+        <v>171910</v>
+      </c>
+      <c r="C68" s="32">
+        <v>67275</v>
+      </c>
+      <c r="D68" s="32">
+        <v>239185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="37">
         <v>44259</v>
       </c>
-      <c r="B69" s="33">
-        <v>175784</v>
-      </c>
-      <c r="C69" s="33">
-        <v>61767</v>
-      </c>
-      <c r="D69" s="33">
-        <v>237551</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="38">
+      <c r="B69" s="32">
+        <v>177547</v>
+      </c>
+      <c r="C69" s="32">
+        <v>61939</v>
+      </c>
+      <c r="D69" s="32">
+        <v>239486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="37">
         <v>44260</v>
       </c>
-      <c r="B70" s="33">
-        <v>185975</v>
-      </c>
-      <c r="C70" s="33">
-        <v>63263</v>
-      </c>
-      <c r="D70" s="33">
-        <v>249238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38">
+      <c r="B70" s="32">
+        <v>195541</v>
+      </c>
+      <c r="C70" s="32">
+        <v>65604</v>
+      </c>
+      <c r="D70" s="32">
+        <v>261145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="37">
         <v>44261</v>
       </c>
-      <c r="B71" s="33">
-        <v>145934</v>
-      </c>
-      <c r="C71" s="33">
-        <v>47244</v>
-      </c>
-      <c r="D71" s="33">
-        <v>193178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38">
+      <c r="B71" s="32">
+        <v>152617</v>
+      </c>
+      <c r="C71" s="32">
+        <v>48927</v>
+      </c>
+      <c r="D71" s="32">
+        <v>201544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="37">
         <v>44262</v>
       </c>
-      <c r="B72" s="33">
-        <v>113180</v>
-      </c>
-      <c r="C72" s="33">
-        <v>34371.5</v>
-      </c>
-      <c r="D72" s="33">
-        <v>147551.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38">
+      <c r="B72" s="32">
+        <v>114518</v>
+      </c>
+      <c r="C72" s="32">
+        <v>34506</v>
+      </c>
+      <c r="D72" s="32">
+        <v>149024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="37">
         <v>44263</v>
       </c>
-      <c r="B73" s="52">
-        <v>177365</v>
-      </c>
-      <c r="C73" s="52">
-        <v>53158.5</v>
-      </c>
-      <c r="D73" s="52">
-        <v>230523.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38">
+      <c r="B73" s="50">
+        <v>183271</v>
+      </c>
+      <c r="C73" s="50">
+        <v>52240</v>
+      </c>
+      <c r="D73" s="50">
+        <v>235511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37">
         <v>44264</v>
       </c>
-      <c r="B74" s="52">
-        <v>190903</v>
-      </c>
-      <c r="C74" s="52">
-        <v>55045</v>
-      </c>
-      <c r="D74" s="52">
-        <v>245948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38">
+      <c r="B74" s="50">
+        <v>192965</v>
+      </c>
+      <c r="C74" s="50">
+        <v>54670</v>
+      </c>
+      <c r="D74" s="50">
+        <v>247635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="37">
         <v>44265</v>
       </c>
-      <c r="B75" s="52">
-        <v>206910</v>
-      </c>
-      <c r="C75" s="52">
-        <v>66863</v>
-      </c>
-      <c r="D75" s="52">
-        <v>273773</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="B75" s="50">
+        <v>213806</v>
+      </c>
+      <c r="C75" s="50">
+        <v>64600</v>
+      </c>
+      <c r="D75" s="50">
+        <v>278406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="37">
         <v>44266</v>
       </c>
-      <c r="B76" s="52">
-        <v>220897</v>
-      </c>
-      <c r="C76" s="52">
-        <v>62666</v>
-      </c>
-      <c r="D76" s="52">
-        <v>283563</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38">
+      <c r="B76" s="50">
+        <v>215566</v>
+      </c>
+      <c r="C76" s="50">
+        <v>60600</v>
+      </c>
+      <c r="D76" s="50">
+        <v>276166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="37">
         <v>44267</v>
       </c>
-      <c r="B77" s="52">
-        <v>218516</v>
-      </c>
-      <c r="C77" s="52">
-        <v>68455</v>
-      </c>
-      <c r="D77" s="52">
-        <v>286971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38">
+      <c r="B77" s="50">
+        <v>244623</v>
+      </c>
+      <c r="C77" s="50">
+        <v>71201</v>
+      </c>
+      <c r="D77" s="50">
+        <v>315824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="37">
         <v>44268</v>
       </c>
-      <c r="B78" s="52">
-        <v>182850</v>
-      </c>
-      <c r="C78" s="52">
-        <v>47848</v>
-      </c>
-      <c r="D78" s="52">
-        <v>230698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38">
+      <c r="B78" s="50">
+        <v>195261</v>
+      </c>
+      <c r="C78" s="50">
+        <v>49329</v>
+      </c>
+      <c r="D78" s="50">
+        <v>244590</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="37">
         <v>44269</v>
       </c>
-      <c r="B79" s="52">
-        <v>128880</v>
-      </c>
-      <c r="C79" s="52">
-        <v>35111</v>
-      </c>
-      <c r="D79" s="52">
-        <v>163991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="38">
+      <c r="B79" s="50">
+        <v>134654</v>
+      </c>
+      <c r="C79" s="50">
+        <v>36045</v>
+      </c>
+      <c r="D79" s="50">
+        <v>170699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37">
         <v>44270</v>
       </c>
-      <c r="B80" s="52">
-        <v>169080</v>
-      </c>
-      <c r="C80" s="52">
-        <v>56773</v>
-      </c>
-      <c r="D80" s="52">
-        <v>225853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-    </row>
-    <row r="82" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-    </row>
-    <row r="83" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-    </row>
-    <row r="84" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-    </row>
-    <row r="85" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="43" t="s">
+      <c r="B80" s="50">
+        <v>186554</v>
+      </c>
+      <c r="C80" s="50">
+        <v>58695</v>
+      </c>
+      <c r="D80" s="50">
+        <v>245249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="37">
+        <v>44271</v>
+      </c>
+      <c r="B81" s="50">
+        <v>111893</v>
+      </c>
+      <c r="C81" s="50">
+        <v>66862</v>
+      </c>
+      <c r="D81" s="50">
+        <v>178755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37">
+        <v>44272</v>
+      </c>
+      <c r="B82" s="50">
+        <v>123181</v>
+      </c>
+      <c r="C82" s="50">
+        <v>78756</v>
+      </c>
+      <c r="D82" s="50">
+        <v>201937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37">
+        <v>44273</v>
+      </c>
+      <c r="B83" s="50">
+        <v>117242</v>
+      </c>
+      <c r="C83" s="50">
+        <v>74721</v>
+      </c>
+      <c r="D83" s="50">
+        <v>191963</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="37">
+        <v>44274</v>
+      </c>
+      <c r="B84" s="50">
+        <v>156215</v>
+      </c>
+      <c r="C84" s="50">
+        <v>81959</v>
+      </c>
+      <c r="D84" s="50">
+        <v>238174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37">
+        <v>44275</v>
+      </c>
+      <c r="B85" s="50">
+        <v>163640</v>
+      </c>
+      <c r="C85" s="50">
+        <v>53704</v>
+      </c>
+      <c r="D85" s="50">
+        <v>217344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="37">
+        <v>44276</v>
+      </c>
+      <c r="B86" s="50">
+        <v>126448</v>
+      </c>
+      <c r="C86" s="50">
+        <v>38768</v>
+      </c>
+      <c r="D86" s="50">
+        <v>165216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="37">
+        <v>44277</v>
+      </c>
+      <c r="B87" s="50">
+        <v>183021</v>
+      </c>
+      <c r="C87" s="50">
+        <v>76630</v>
+      </c>
+      <c r="D87" s="50">
+        <v>259651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="37">
+        <v>44278</v>
+      </c>
+      <c r="B88" s="50">
+        <v>206016</v>
+      </c>
+      <c r="C88" s="50">
+        <v>82717</v>
+      </c>
+      <c r="D88" s="50">
+        <v>288733</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="37">
+        <v>44279</v>
+      </c>
+      <c r="B89" s="50">
+        <v>223513</v>
+      </c>
+      <c r="C89" s="50">
+        <v>86989</v>
+      </c>
+      <c r="D89" s="50">
+        <v>310502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="37">
+        <v>44280</v>
+      </c>
+      <c r="B90" s="50">
+        <v>234998</v>
+      </c>
+      <c r="C90" s="50">
+        <v>78574</v>
+      </c>
+      <c r="D90" s="50">
+        <v>313572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="37">
+        <v>44281</v>
+      </c>
+      <c r="B91" s="50">
+        <v>251867</v>
+      </c>
+      <c r="C91" s="50">
+        <v>87400</v>
+      </c>
+      <c r="D91" s="50">
+        <v>339267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="37">
+        <v>44282</v>
+      </c>
+      <c r="B92" s="50">
+        <v>207274</v>
+      </c>
+      <c r="C92" s="50">
+        <v>62309</v>
+      </c>
+      <c r="D92" s="50">
+        <v>269583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="37">
+        <v>44283</v>
+      </c>
+      <c r="B93" s="50">
+        <v>138111</v>
+      </c>
+      <c r="C93" s="50">
+        <v>51940</v>
+      </c>
+      <c r="D93" s="50">
+        <v>190051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="37">
+        <v>44284</v>
+      </c>
+      <c r="B94" s="50">
+        <v>198026</v>
+      </c>
+      <c r="C94" s="50">
+        <v>86255</v>
+      </c>
+      <c r="D94" s="50">
+        <v>284281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="37">
+        <v>44285</v>
+      </c>
+      <c r="B95" s="50">
+        <v>197247</v>
+      </c>
+      <c r="C95" s="50">
+        <v>90070</v>
+      </c>
+      <c r="D95" s="50">
+        <v>287317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+    </row>
+    <row r="97" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+    </row>
+    <row r="98" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+    </row>
+    <row r="99" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="32">
+        <f>SUM(B2:B99)</f>
+        <v>9421702</v>
+      </c>
+      <c r="C100" s="32">
+        <f t="shared" ref="C100" si="0">SUM(C2:C99)</f>
+        <v>4059469</v>
+      </c>
+      <c r="D100" s="32">
+        <f>SUM(D2:D99)</f>
+        <v>13481171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="56">
+        <v>6960</v>
+      </c>
+      <c r="C101" s="55">
+        <v>20</v>
+      </c>
+      <c r="D101" s="60">
+        <f>B101+C101</f>
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="33">
-        <f>SUM(B2:B80)</f>
-        <v>6712195</v>
-      </c>
-      <c r="C86" s="33">
-        <f>SUM(C2:C80)</f>
-        <v>2951692</v>
-      </c>
-      <c r="D86" s="33">
-        <f>SUM(D2:D80)</f>
-        <v>9663887</v>
+      <c r="B102" s="58">
+        <f>B100+B101</f>
+        <v>9428662</v>
+      </c>
+      <c r="C102" s="58">
+        <f>C100+C101</f>
+        <v>4059489</v>
+      </c>
+      <c r="D102" s="58">
+        <f>D100+D101</f>
+        <v>13488151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
